--- a/LKW_INPUT.xlsx
+++ b/LKW_INPUT.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 504, 480, 'Optimierungspotential', 780475]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 967606]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 889730]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 504, 480, 'Optimierungspotential', 599714]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 504, 480, 'Optimierungspotential', 803173]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 938172]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 362765]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 534303]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 862660]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 77929]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 504, 480, 'Optimierungspotential', 951051]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 504, 480, 'Optimierungspotential', 472167]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 726015]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 480, 'Optimierungspotential', 266834]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 97776]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 46551]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 924494]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 694558]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 647212]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 65354]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 285891]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 817054]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 951484]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 36433]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 272511]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 253446]]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 799482]]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 976286]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 976295]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 738284]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.19, 252, 540, 'Optimierungspotential', 335325]]</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 704035]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 982161]]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 871272]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 426582]]</t>
+          <t>[['NCS', 0.29, 504, 540, 'Optimierungspotential', 367948]]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 621461]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 504, 480, 'Optimierungspotential', 136500]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 774780]]</t>
+          <t>[['NCS', 0.2, 504, 540, 'Optimierungspotential', 18374]]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 756167]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 716920]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 868564]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 410576]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 352912]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 842518]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 966632]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 290704]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 572530]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 207640]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 739429]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 883766]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 1811]]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 176204]]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 262437]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 54969]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 368874]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 200756]]</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 458371]]</t>
+          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 721687]]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 126702]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 478483]]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 398731]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 454063]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 248056]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 521657]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 741672]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 320076]]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 598367]]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 338444]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 965155]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 900259]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4136,17 +4136,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 998634]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 828050]]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 993805]]</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 63616]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 553423]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 883969]]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 877612]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 204165]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 120595]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 891870]]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 237271]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 371637]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 562931]]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 711960]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 711316]]</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 114172]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 446251]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 781901]]</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 934691]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 511182]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 289182]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 597027]]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 517541]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 473900]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 659627]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 226636]]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4516,37 +4516,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 372251]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 624590]]</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 688171]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 880285]]</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 928423]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 501543]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 230730]]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 830847]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 842933]]</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 256903]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[['MCS', 0.3, 756, 45, 'Optimierungspotential', 278367]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4596,27 +4596,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 210491]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 817706]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 944806]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 353246]]</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 332213]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 147915]]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 690933]]</t>
+          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 170926]]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 295682]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 647726]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 592717]]</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4646,17 +4646,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 819558], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 174299]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 73728]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 975126]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 24925]]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 740336]]</t>
+          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 813753]]</t>
         </is>
       </c>
     </row>
@@ -4676,37 +4676,37 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 240982]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 225401]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 223393]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 8765]]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 983740], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 825022]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 527734]]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 283877], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 62107]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 331175]]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 226700]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 201731]]</t>
         </is>
       </c>
     </row>
@@ -4716,27 +4716,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 743189]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 926748]]</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 559806]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 64185], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 817682]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 345944]]</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 127910]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 210846]]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 847439]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 53941]]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 720233], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 758077]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4756,37 +4756,37 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 198431]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 336411]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 975435]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 130087]]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 18739]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 806438], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 1819]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 922342]]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 201946]]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 985684], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 722854]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 774833]]</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 966557]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 766856]]</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4806,17 +4806,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 46445], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 377651]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 916574], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 683881]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 533646]]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 7783]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 440396]]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 819666]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 443697]]</t>
         </is>
       </c>
     </row>
@@ -4836,37 +4836,37 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 889771], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 988487]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 653822]]</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 260931]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 89143], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 354916]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 168359]]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 56794], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 619857]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 325426]]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 786045], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 384961]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 88059]]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 406034]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 211049], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 721962]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 803348]]</t>
         </is>
       </c>
     </row>
@@ -4876,37 +4876,37 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 704258]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 11949]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 677231], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 819642], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 326193]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 641993], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 509605]]</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 626900]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 348617]]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 744700], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 25049]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 713946]]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 703682]]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 731339], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 207402], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 537383]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 120919]]</t>
         </is>
       </c>
     </row>
@@ -4916,27 +4916,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 555379], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 246074]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 948251]]</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 949526]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 632238], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 155806]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 492775]]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 983624], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 12599]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 996010]]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 44246], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 872951]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 566341]]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 554875], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 106556]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 4761]]</t>
         </is>
       </c>
     </row>
@@ -4956,37 +4956,37 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 274683], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 220393]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 187707]]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 441663]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 817759], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 523754]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 974218]]</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 228031], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 283842]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 88624]]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 277624], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 430830]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 720269]]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 811753]]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 130748], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 516431]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 278206]]</t>
         </is>
       </c>
     </row>
@@ -4996,27 +4996,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 465623]]</t>
+          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 429788]]</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 643742]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 68989], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 998169], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 519889]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 950484]]</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 624808], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 418406]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 777187]]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 953460], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 793771], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 947862]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 832442], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 404346]]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 100426], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 672475]]</t>
+          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 571944]]</t>
         </is>
       </c>
     </row>
@@ -5036,37 +5036,37 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 143987], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 905080]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 61543]]</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 911701]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 227438], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 601568], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 987311]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 816134]]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 23363], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 531080]]</t>
+          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 697009]]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 321390], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 3559]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 685942]]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 885820]]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 742115], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 599632], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 614323]]</t>
+          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 548022]]</t>
         </is>
       </c>
     </row>
@@ -5076,37 +5076,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 555350], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 307214], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 31291]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 699326]]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 111791], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 62030]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 943495], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 240730], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 800858], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 7359]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 372980], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 139893]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 296913], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 905650], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 82694], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 474586]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 356799], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 350579]]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 721129], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 13016], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 335452], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 347648]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 656858], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 787627]]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 423118]]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 397739], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 318980], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 512662], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 156432]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 511838], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 144316]]</t>
         </is>
       </c>
     </row>
@@ -5116,37 +5116,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 672347], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 179382], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 516788], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 507114]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 569381], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 205096]]</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 280979], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 811590]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 169109]]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 879674], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 484549], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 760711], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 818356], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 635728]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 569932], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 679037], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 14589]]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 413018], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 644628], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 315597], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 288602]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 847908], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 41085]]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 439389], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 663528], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 48450], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 135626]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 147187], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 766565], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 927741]]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 356363]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 872506]]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 683380], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 134749], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 634319], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 315109], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 840016]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 116154], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 924550]]</t>
         </is>
       </c>
     </row>
@@ -5156,37 +5156,37 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 554193], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 346755], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 75812]]</t>
+          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 956034], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 527460]]</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 662578], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 617529]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 970443], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 505926], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 805812], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 154179], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 485742]]</t>
+          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 763702], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 609200]]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 684301], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 899849], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 16959]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 653696]]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[['HPC', 0.05, 252, 45, 'Optimierungspotential', 669586], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 409351], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 350079], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 360788]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 392058], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 155435]]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 598001]]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 484498], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 716731], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 600879], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 4346]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 975783], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 445734]]</t>
         </is>
       </c>
     </row>
@@ -5196,37 +5196,37 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 277286], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 5230], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 291177]]</t>
+          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 251861]]</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 526513], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 282322]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 866006], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 419473], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 737587], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 716721], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 912515]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 968594], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 556072]]</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 986052], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 296195], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 862570], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 171909]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 347755], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 986423]]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 504537], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 765419], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 424307], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 284904], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 20655]]</t>
+          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 568961], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 454394], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 813653]]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 810298]]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 183043], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 85874], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 39523], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 210425], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 665641]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 991051], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 12192], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 252165]]</t>
         </is>
       </c>
     </row>
@@ -5236,37 +5236,37 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 348346], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 960615], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 657479], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 41653]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 834678], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 889893]]</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 9443], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 315707]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 216030], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 61217], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 604871], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 211206], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 586532]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 323667], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 615058]]</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 168517], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 117988], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 636291], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 69924], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 681386]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 427594], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 898350], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 669916]]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 545686], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 391247], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 613534], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 756615]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 874480], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 584161]]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 339553]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 273428]]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 334552], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 556194], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 980755], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 546536]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 89094], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 997132]]</t>
         </is>
       </c>
     </row>
@@ -5276,37 +5276,37 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 578870], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 699710], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 259314]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 371910], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 143686]]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 108129], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 694584]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 960184], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 252306], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 887134], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 569323], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 258107]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 897644], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 451300], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 533387]]</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 720779], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 372925], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 516787], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 570610]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 816175], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 896977]]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 462247], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 88820], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 250137], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 223539], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 33313]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 692909], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 818233], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 453320]]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 882339]]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 626635], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 218806], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 784230], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 268939], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 573136]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 566803], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 952165]]</t>
         </is>
       </c>
     </row>
@@ -5316,37 +5316,37 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 154078], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 330561], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 133710], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 866630]]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 671449], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 636672]]</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 641791], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 789721]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 166762], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 670558], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 337111], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 220012], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 342619], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 953472]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 8836], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 146142]]</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[['MCS', 0.28, 756, 45, 'Optimierungspotential', 564894], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 381728], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 175206], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 6229]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 152640], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 283566]]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 951724], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 273362], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 878791], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 650113], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 175685]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 530868], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 97667], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 445772]]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 22015]]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 391792], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 9805], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 872481], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 854745], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 210068]]</t>
+          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 873440], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 95404], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 749025]]</t>
         </is>
       </c>
     </row>
@@ -5356,37 +5356,37 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 402653], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 689636], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 809211], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 813453]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 923230], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 348514]]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 191943], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 897324]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 716158], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 950448], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 489176], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 88903], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 970018]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 835772], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 276255], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 466880]]</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 59778], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 864757], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 56055], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 775996], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 415429]]</t>
+          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 279793], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 766312]]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 626073], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 66710], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 663027], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 771629]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 36046], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 350506]]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 90096]]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 199987], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 738809], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 971801], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 434197], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 438449]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 387610], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 688593]]</t>
         </is>
       </c>
     </row>
@@ -5396,37 +5396,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 997568], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 973189], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 580415], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 246699]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 819251], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 710333]]</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 888932], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 86000]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 81617]]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 665588], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 122218], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 950205], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 803455], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 129954], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 863244]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 377952], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 260673], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 927998]]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 241971], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 663731], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 980609], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 314282]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 451032], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 436683]]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 901179], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 708288], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 189690], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 123247], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 409619]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 900655], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 306347], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 30687]]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 674925]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 487438]]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 357354], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 288943], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 906934], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 529398], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 833526], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 255768]]</t>
+          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 391747], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 692559]]</t>
         </is>
       </c>
     </row>
@@ -5436,37 +5436,37 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 787722], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 337974], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 958161], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 733963]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 128328], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 814298]]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 396473], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 899146], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 163322]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 507898], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 212929], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 570181], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 827949], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 278717], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 276760]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 588920], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 279791]]</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 98323], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 459897], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 923318], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 185529], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 559231]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 149659], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 826997], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 707923]]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 926522], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 379592], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 9585], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 684306], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 844802], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 920259]]</t>
+          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 860544], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 11630], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 925033]]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 36257]]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 471862], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 870215], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 665822], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 712681], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 246730]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 819861], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 828937], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 722743]]</t>
         </is>
       </c>
     </row>
@@ -5476,37 +5476,37 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 591089], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 11461], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 187696], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 627876]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 734470], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 1718]]</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 82553], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 480358]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 687834], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 695875], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 735224], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 515362], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 868349], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 167319]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 734231], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 21143], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 993337]]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 708601], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 371585], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 209854], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 482444], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 332429]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 49633], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 341721]]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 89924], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 763805], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 394088], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 331493], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 641843]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 799451], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 22657], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 621743]]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 748528]]</t>
+          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 4659]]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 586498], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 336600], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 551296], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 214244], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 822169], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 83195]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 495474], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 622075], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 652807]]</t>
         </is>
       </c>
     </row>
@@ -5516,37 +5516,37 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 33266], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 773692], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 589098], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 334381]]</t>
+          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 886227], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 471051]]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 384454], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 209827]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 339530], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 807695], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 549332], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 549013], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 935772], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 395559]]</t>
+          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 390140], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 49118], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 51080]]</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 648689], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 924017], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 944043], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 445545], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 269506]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 407958], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 42340], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 289016]]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 858133], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 396644], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 499768], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 492395], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 563894]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 619913], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 951837], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 356541]]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 723457]]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 939208], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 956014], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 528487], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 764938], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 979082]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 148342], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 885090]]</t>
         </is>
       </c>
     </row>
@@ -5556,37 +5556,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 766527], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 73629], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 19533], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 791727], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 571163], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 25225]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 422389], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 151956], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 940308]]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 275917], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 886574], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 699628]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 130598], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 963718], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 242040], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 250401], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 226090], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 238983], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 655301], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 875533]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 266228], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 553348], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 180566], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 733517]]</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 96531], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 823529], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 105405], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 130187], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 215113], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 85949]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 582971], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 716666], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 674483]]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 268280], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 756834], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 906987], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 387786], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 154907], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 893471], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 175764], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 614946]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 59154], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 931560], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 286029], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 557772]]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 766404], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 705189]]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 817686], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 436445], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 462861], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 529431], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 22119], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 564701], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 968124], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 324434]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 447820], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 79920], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 602685], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 132905]]</t>
         </is>
       </c>
     </row>
@@ -5596,37 +5596,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 922992], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 763357], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 381946], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 33942], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 793005], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 805740]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 985859], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 280944], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 230142]]</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 354914], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 613804], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 11036]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 630675]]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 102297], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 174156], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 414705], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 15845], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 624874], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 950404], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 416815], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 10817], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 959356]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 477616], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 372814], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 743533], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 497420]]</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 977613], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 661774], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 923849], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 660518], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 578465], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 468466], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 980438]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 377342], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 343698], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 806135]]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 536556], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 695805], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 572550], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 531677], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 426510], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 639985], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 736238]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 456262], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 756002], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 797100], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 207165], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 927162]]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 973114]]</t>
+          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 875416]]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 348746], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 267535], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 6967], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 372200], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 609724], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 993987], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 718505], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 294271]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 389879], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 229404], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 595079], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 389615]]</t>
         </is>
       </c>
     </row>
@@ -5636,37 +5636,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 800343], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 721822], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 501400], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 870340], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 199189]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 679409], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 489387]]</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 254307], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 155284], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 571911]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 937364], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 862042], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 955098], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 377515], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 872788], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 835840], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 605320], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 44144]]</t>
+          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 536132], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 956675], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 499997]]</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 672283], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 767525], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 178400], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 247697], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 931666], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 949398], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 33155]]</t>
+          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 577363], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 232333], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 803014], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 229180]]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 91473], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 645174], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 185661], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 785831], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 81595], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 902931], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 862896]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 344943], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 301289], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 481329], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 923986]]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 565129]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 523036], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 327994]]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 259190], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 198155], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 773621], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 557709], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 755041], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 971257], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 771338]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 463357], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 717880], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 977251]]</t>
         </is>
       </c>
     </row>
@@ -5676,37 +5676,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 690332], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 39246], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 549974], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 675800], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 879938], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 246249]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 301118], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 452222], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 807663]]</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 729971], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 794968], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 974642]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 91606], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 768154], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 10950], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 17962], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 306848], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 824851], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 248103]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 314774], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 905873], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 802529], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 590998]]</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 71656], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 988235], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 802876], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 771790], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 806139], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 295491]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 262851], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 719260], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 516637]]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 381534], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 144858], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 325802], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 900632], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 83971], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 353304], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 986658]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 682327], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 678377], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 693277]]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 87933]]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 134170], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 603961], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 336200], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 961667], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 999765], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 2296], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 630469]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 281597], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 675205], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 386483], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 943683]]</t>
         </is>
       </c>
     </row>
@@ -5716,37 +5716,37 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 363383], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 341847], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 263276], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 985240], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 998451]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 844571], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 766484], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 890964]]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 249983], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 328455]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 591250]]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[['HPC', 0.05, 252, 45, 'Optimierungspotential', 324413], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 686843], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 785028], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 659701], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 830911], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 184543], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 131986], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 480660]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 360499], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 958018], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 227121], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 473954]]</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[['MCS', 0.05, 756, 45, 'Optimierungspotential', 67963], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 697546], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 796937], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 551513], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 707690], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 865286], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 275433]]</t>
+          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 160388], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 673008], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 149800]]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 222134], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 410348], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 26013], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 554809], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 246228], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 142408], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 546791]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 906930], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 447018], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 706110], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 793387]]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 818099]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 126589]]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 433081], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 868206], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 599371], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 262346], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 250653], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 207727], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 314612], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 517308]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 229191], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 166756], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 237782]]</t>
         </is>
       </c>
     </row>
@@ -5756,37 +5756,37 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 448028], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 761253], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 36163], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 663725], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 54274]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 589695], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 109391]]</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 479214], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 243051], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 298816]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 183167], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 471634], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 835599], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 296670], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 123575], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 711753], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 964839], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 283396]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 33069], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 984311], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 689524]]</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 985466], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 80146], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 762577], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 798260], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 750810], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 239929]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 950309], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 572429], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 908190]]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 340213], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 911521], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 690512], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 469302], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 665208], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 321892], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 266800]]</t>
+          <t>[['HPC', 0.05, 252, 45, 'Optimierungspotential', 104006], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 8616], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 471437], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 674121]]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 17325], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 247660]]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 645781], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 987048], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 210585], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 193357], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 955614], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 915240], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 576049]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 774526], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 949214], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 545546], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 267716]]</t>
         </is>
       </c>
     </row>
@@ -5796,37 +5796,37 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 813430], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 901998], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 31188], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 41928], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 340655], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 977545]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 440373], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 755857], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 65037]]</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 445667], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 904088], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 861716]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 527840], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 678505], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 594889], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 693222], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 880314], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 434961], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 999890]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 572932], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 996762], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 433229], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 263564]]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 703362], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 790641], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 430095], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 150291], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 121391], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 764726]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 779683], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 560852], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 509360]]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 998602], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 705153], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 803675], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 132566], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 694637], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 8996]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 54776], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 444083], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 916874], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 42569]]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 278848]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 21652]]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 422604], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 484785], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 519044], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 359130], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 721513], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 939286], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 52612]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 726608], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 810647], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 22541]]</t>
         </is>
       </c>
     </row>
@@ -5836,37 +5836,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 214798], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 819907], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 599635], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 618899], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 606163]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 212798], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 126861], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 537536]]</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 900838], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 792008]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 588902], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 100138], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 279972], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 975822], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 842984], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 567053], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 302201], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 55208]]</t>
+          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 844497], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 849392], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 886637], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 332093]]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 439597], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 578184], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 132115], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 425581], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 918024], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 637868], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 795423]]</t>
+          <t>[['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 736035], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 558942], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 504101], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 361745]]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 514992], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 166134], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 50463], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 909076], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 590008], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 87844], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 993947]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 590937], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 760166], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 606592], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 123388]]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 745782]]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 346223], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 322705], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 53062], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 155452], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 287747], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 973003], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 455974], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 433017]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 494115], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 410995], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 961643]]</t>
         </is>
       </c>
     </row>
@@ -5876,37 +5876,37 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 119911], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 598698], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 425499], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 201578], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 74529], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 498623]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 480886], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 908572], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 437585]]</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 512654], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 542704], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 614100]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 742041]]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 821536], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 96782], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 432069], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 913471], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 936038], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 809747], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 876737], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 649490]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 379643], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 451906], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 805376], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 970990]]</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 314278], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 407121], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 139024], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 612526], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 842341], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 98707]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 487760], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 717554], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 491937]]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 928056], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 807345], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 989963], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 545418], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 905802], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 968787], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 161605]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 371948], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 397969], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 918797], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 546862]]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 850816]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 739291], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 773254]]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 322405], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 476067], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 162625], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 969631], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 862037], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 935568], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 973583], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 604046]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 163838], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 168302], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 525079], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 460925]]</t>
         </is>
       </c>
     </row>
@@ -5916,37 +5916,37 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 885069], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 223944], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 608378], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 42885], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 942887]]</t>
+          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 392081], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 225100]]</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 131375], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 263680], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 660357]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 846757], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 664785], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 861352], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 380787], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 201601], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 50100], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 414783]]</t>
+          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 759370], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 957222], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 403576]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 840530], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 888954], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 466514], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 299242], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 788001], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 893982]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 433954], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 209038], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 728973]]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 924954], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 392256], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 265946], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 7149], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 24239], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 97440], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 286693]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 630032], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 458954], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 383291]]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 576724]]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 356984], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 636362], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 599394], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 222242], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 207320], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 936108], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 521335]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 124398], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 595692], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 699180]]</t>
         </is>
       </c>
     </row>
@@ -5956,37 +5956,37 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 62515], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 92842], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 440314], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 175270], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 234887]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 647069], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 226336], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 450967]]</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 764316], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 520770]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 384707], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 917118], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 324113], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 977669], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 629651], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 447361], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 86340], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 891473]]</t>
+          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 852969], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 510998], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 688372], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 455263]]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 464205], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 779275], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 357189], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 946424], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 47231], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 840594]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 498803], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 739272], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 516727]]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 827152], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 967732], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 784020], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 83007], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 727266], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 26709], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 223935]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 479038], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 58433], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 722934], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 976145]]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 143347]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 255347]]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 232887], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 140201], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 118448], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 231022], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 231553], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 27546], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 60915]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 584035], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 867335], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 946511], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 262584]]</t>
         </is>
       </c>
     </row>
@@ -5996,37 +5996,37 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 788496], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 322865], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 777929], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 360505], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 728039], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 483357]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 990491], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 297711], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 801487]]</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 108758], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 912109]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 704276], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 380750], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 935049], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 545394], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 310551], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 517931], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 663654]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 214854], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 154961], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 656068], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 70260]]</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 7196], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 951225], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 101395], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 621543], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 364975], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 244402], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 161469]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 852090], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 224608], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 120805]]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 919554], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 927176], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 954761], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 217791], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 149859], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 554641], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 174412]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 430599], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 870866], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 423850], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 139089]]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 867233]]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 158467], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 151751], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 103444], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 530707], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 844377], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 324232], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 188339], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 81566]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 447839], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 87778], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 667841]]</t>
         </is>
       </c>
     </row>
@@ -6036,37 +6036,37 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 555896], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 734073], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 376934], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 747150]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 563590], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 879364]]</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 616288], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 25916]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 248929], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 125719], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 945858], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 42917], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 85450], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 428899]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 246603], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 761324]]</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 973305], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 988667], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 546826], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 295428], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 566031]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 843879], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 956090], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 546662]]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 852535], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 347625], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 779167], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 702298], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 877899]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 324561], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 245034], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 172774]]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 252612]]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 989878], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 428908], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 636912], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 238252], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 510628]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 259655], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 807159], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 574715]]</t>
         </is>
       </c>
     </row>
@@ -6076,37 +6076,37 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 65206], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 893483], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 669931], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 373302]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 261753], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 819583]]</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 545846], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 970522]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 123982]]</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 503036], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 279130], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 298880], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 162954], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 676051], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 263941]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 687583], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 797996], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 779737]]</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 371447], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 894851], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 654381], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 706615], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 676796]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 539211], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 660358]]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 365780], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 776355], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 587896], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 964576], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 577659]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 870949], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 651722], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 962082]]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 64065]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 957329]]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 801344], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 572805], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 440584], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 551002], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 76446], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 696394]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 257685], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 984496]]</t>
         </is>
       </c>
     </row>
@@ -6116,37 +6116,37 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 637102], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 621629], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 315936], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 842054]]</t>
+          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 400367], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 490140]]</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 402420], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 659809]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 531041], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 405639], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 6787], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 69122], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 813356], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 932296]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 249938], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 966493], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 649284]]</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 650901], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 623358], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 110509], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 719528], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 986869]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 485348], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 277584], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 925787]]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 5137], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 310882], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 327461], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 265499], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 769134], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 72365]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 555950], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 464901], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 750118]]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 663476]]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 123966], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 870237], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 215114], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 283312], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 79516], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 246497]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 722645], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 897101], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 8142]]</t>
         </is>
       </c>
     </row>
@@ -6156,37 +6156,37 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 580520], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 982405], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 945860], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 398328], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 697472]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 753930], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 501282]]</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 474036], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 981012]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 639865], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 242017], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 420291], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 288163], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 920272], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 844956]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 927216], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 292387], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 583379]]</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 663656], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 996177], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 601328], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 19260], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 488551]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 7480], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 449462]]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 600656], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 704680], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 852391], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 926045], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 800608]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 213980], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 896510], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 866104]]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 964516]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 775017]]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 576824], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 42477], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 140195], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 564930], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 166148], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 214336]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 896136], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 958579], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 80274]]</t>
         </is>
       </c>
     </row>
@@ -6196,37 +6196,37 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 403321], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 203449], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 226704], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 241271]]</t>
+          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 620866], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 836243]]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 613813], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 681671]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[['MCS', 0.3, 756, 45, 'Optimierungspotential', 144634], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 819293], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 31011], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 698797], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 208499], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 944456]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 563499], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 672178], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 490856]]</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 78717], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 791323], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 165480], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 732774], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 457741]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 351637], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 132403], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 984672]]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 92047], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 470892], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 409485], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 359132], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 285735], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 186002]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 585908], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 249823], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 134269]]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 83466]]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 792985], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 744089], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 972260], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 218914], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 935142], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 923258]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 937112], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 953853], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 854019]]</t>
         </is>
       </c>
     </row>
@@ -6236,37 +6236,37 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 335657], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 657865], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 111392], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 600450]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 524150], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 18749]]</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 964637], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 918251]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 901129], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 754087], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 773771], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 144040], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 252335], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 128485]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 256146], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 383356], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 15005], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 593486]]</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 763034], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 153184], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 105648], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 954702], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 768173]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 449093], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 980765]]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 872191], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 970523], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 780372], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 402379], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 31703], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 436193]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 152850], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 701685], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 566418]]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 238412]]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 389691], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 322999], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 600927], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 87728], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 243349], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 700600], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 359316]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 833289], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 567201], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 936728]]</t>
         </is>
       </c>
     </row>
@@ -6276,37 +6276,37 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 788706], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 338487], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 27079], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 343054]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 68603], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 379940]]</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 818628]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 682570]]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 80624], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 793071], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 316520], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 701090], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 50574], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 298493]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 765165], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 996166]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 750566], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 112056], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 579136], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 724034], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 819137]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 407702], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 48601], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 634215]]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 971992], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 517181], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 516826], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 668094], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 628035]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 724978], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 288317], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 458823]]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 105333]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 799955]]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 21657], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 849165], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 153862], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 679358], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 387369]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 91187], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 233722]]</t>
         </is>
       </c>
     </row>
@@ -6316,37 +6316,37 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 545509], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 800459], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 587125], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 168594], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 118803]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 864842], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 413612], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 778856]]</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 650211], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 650448]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 616232], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 479685], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 93971], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 134610], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 755711]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 361778], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 700578], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 1168]]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 346244], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 375456], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 186233], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 999015], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 183820]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 233091], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 901143]]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 523578], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 39276], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 68860], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 492898], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 58651], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 885898]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 506802], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 24479]]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 39282]]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 226826], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 68588], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 914801], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 814026], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 693160], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 577949]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 379669], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 693179], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 794536]]</t>
         </is>
       </c>
     </row>
@@ -6356,37 +6356,37 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 414442], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 411034], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 452296], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 441279]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 84144], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 414233]]</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 130223], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 109462]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 849058], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 437166], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 345407], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 577946], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 831929], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 46993]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 635363], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 534265], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 258488]]</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 884010], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 938228], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 659888], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 820614], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 653604]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 304033], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 347197], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 627400]]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 9588], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 863596], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 886319], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 595818], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 519535], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 815500]]</t>
+          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 888253], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 59984], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 678022]]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 901656]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 37402]]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 598684], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 593118], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 508497], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 19724], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 753193], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 404196]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 981083], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 225377], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 769791]]</t>
         </is>
       </c>
     </row>
@@ -6396,37 +6396,37 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 127543], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 386969], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 61645], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 264911]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 330334], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 613958]]</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 230064], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 365473]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 417069], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 170612], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 553262], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 524503], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 674391], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 351843]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 552341], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 894059], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 328560]]</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 876610], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 17647], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 714306], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 160285], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 968984]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 705862], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 961729]]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[['MCS', 0.3, 756, 45, 'Optimierungspotential', 984298], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 568603], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 760973], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 42668], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 196110]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 375280], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 543881], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 90265]]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 237662]]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 442585], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 492888], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 730675], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 120318], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 169115], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 668269]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 819562], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 935179], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 495373]]</t>
         </is>
       </c>
     </row>
@@ -6436,27 +6436,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 504576], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 750325], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 195508], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 851535]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 18572], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 695275]]</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 513867]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 823043], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 576966], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 978141], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 196116], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 135772], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 542303]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 926201], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 726941], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 253477]]</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 246543], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 459768], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 631962], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 642657], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 569456]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 615148], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 429089], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 231419]]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 426854], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 685630], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 696379], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 124426], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 958032], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 648532]]</t>
+          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 46683], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 655562], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 752480]]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 571333], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 583487], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 381451], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 610811], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 538964], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 269866]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 271920], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 735524], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 520045]]</t>
         </is>
       </c>
     </row>
@@ -6476,37 +6476,37 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 373018], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 320429], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 646212], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 88516]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 207937], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 432552]]</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 884755], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 62511]]</t>
+          <t>[['MCS', 0.3, 756, 45, 'Optimierungspotential', 664132]]</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 882946], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 858949], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 743201], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 798854], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 242472], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 626866]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 713771], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 74978], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 426685]]</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 227067], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 296486], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 190235], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 868232], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 420232]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 801682], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 121072]]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 584066], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 138244], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 706856], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 372714], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 657059]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 315214], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 84297], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 268674]]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 40085]]</t>
+          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 238192]]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 415297], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 565330], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 749584], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 573018], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 14544], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 687953]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 178432], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 876813]]</t>
         </is>
       </c>
     </row>
@@ -6516,37 +6516,37 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 624221], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 723767], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 529556], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 183283]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 262222], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 181671]]</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 992024], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 293088]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 245884], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 877305], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 736543], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 470758], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 533254], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 18260]]</t>
+          <t>[['MCS', 0.28, 756, 45, 'Optimierungspotential', 540324], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 832952], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 656449]]</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 176538], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 7442], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 21997], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 622653]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 573679], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 733898]]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 822478], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 481902], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 624757], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 478578], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 901740], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 468944]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 30439], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 407657], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 971622]]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 900157]]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 291024], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 342299], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 40183], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 893555], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 298381], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 460662]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 684778], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 350068], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 271747]]</t>
         </is>
       </c>
     </row>
@@ -6556,37 +6556,37 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[['MCS', 0.28, 756, 45, 'Optimierungspotential', 591824], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 813563], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 521599], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 177408]]</t>
+          <t>[['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 38444], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 566962]]</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 387055]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 231974], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 14386], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 241815], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 176906], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 983313]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 578884], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 242362], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 670]]</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 992767], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 710051], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 107916], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 440495], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 33568]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 680838], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 648147], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 887567]]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 420565], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 897899], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 220632], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 905452], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 347297]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 567822], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 171238], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 279774]]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 530083]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 2138]]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 858041], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 485507], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 60713], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 546899], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 877262]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 368812], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 119382], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 370162]]</t>
         </is>
       </c>
     </row>
@@ -6596,37 +6596,37 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 858447], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 658913], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 831023], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 299003]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 842540], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 968702]]</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 753666], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 8187]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 42675], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 805474], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 816125], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 212233], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 530703], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 322315]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 176397], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 380227], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 764686]]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 965360], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 921467], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 480169], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 599178], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 486489]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 709104], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 937710]]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 478361], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 350681], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 949002], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 576937], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 897381]]</t>
+          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 761924], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 916240], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 194085]]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 869718]]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 89723], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 26930], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 851197], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 151628], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 18967], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 848805]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 588855], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 471561]]</t>
         </is>
       </c>
     </row>
@@ -6636,27 +6636,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 819993], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 562538], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 54271], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 188872], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 327455]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 870280], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 208624]]</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 298569]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 98517], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 154677], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 443717], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 639305], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 222008]]</t>
+          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 202632], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 842230]]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 618509], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 280204], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 922616], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 666460]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 908290], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 330197]]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 351312], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 73873], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 256956], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 499666], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 750833]]</t>
+          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 290054], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 781714]]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 79507], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 958970], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 754322], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 419692], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 182649]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 158141], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 687025], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 812865]]</t>
         </is>
       </c>
     </row>
@@ -6676,37 +6676,37 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 482682], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 831538], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 834579]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 287437]]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 706497], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 393127]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 329008]]</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 831862], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 351545], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 640026], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 517915], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 703851], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 971080]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 847736], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 172125], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 683239]]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 146429], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 342553], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 612536], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 585159], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 85799]]</t>
+          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 236323], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 667492], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 930440]]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 845442], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 192019], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 660954], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 376841], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 273148], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 396292]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 157147], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 992614], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 947793]]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 206683]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 609792]]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 769328], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 540921], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 922933], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 996206], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 691637]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 637982], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 211245], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 812311]]</t>
         </is>
       </c>
     </row>
@@ -6716,37 +6716,37 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 820100], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 370274], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 470862], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 811440]]</t>
+          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 998724], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 510470]]</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 657322]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 1322], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 170068], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 612125], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 366136], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 151741]]</t>
+          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 727290], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 728725], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 624065]]</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 652252], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 296574], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 307176], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 268391]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 101320], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 379285]]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 139706], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 234173], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 536698], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 10277], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 855516]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 405978], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 802158], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 573847]]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 127352]]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 939006], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 358904], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 256892], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 332863], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 501435], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 949631]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 983419], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 628200]]</t>
         </is>
       </c>
     </row>
@@ -6756,37 +6756,37 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 195901], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 890286], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 956653], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 795899]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 619556], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 691011]]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 538245], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 704615]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 870798], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 435925], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 376597], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 18923], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 650495], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 478657]]</t>
+          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 509331], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 932885]]</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 189442], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 381098], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 598561], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 52729], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 456445]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 120085], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 32469]]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 981726], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 287206], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 219638], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 543010], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 80003]]</t>
+          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 382532], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 187410], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 868439]]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 611305]]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 912356], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 98178], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 696303], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 646497], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 339535]]</t>
+          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 232316], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 81230], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 915627]]</t>
         </is>
       </c>
     </row>
@@ -6796,37 +6796,37 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 781850], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 896096], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 469269], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 109044]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 342048], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 428942]]</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 774075]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 435050], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 724952], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 863129], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 220774], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 694219]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 472933], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 658913], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 905816]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 42870], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 721867], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 399843], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 18053], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 816626], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 923803]]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 252140], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 903457], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 222576]]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 932542], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 912009], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 979951], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 723999], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 127448]]</t>
+          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 472102], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 257506]]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 487602]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 756, 480, 'Optimierungspotential', 888469], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 728029], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 200698], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 511150], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 290625], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 409683], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 701772]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 37837], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 143079]]</t>
         </is>
       </c>
     </row>
@@ -6836,37 +6836,37 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 408277], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 601686], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 68554]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 298155], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 368818]]</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 505830], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 340212]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 58120], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 994809], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 572094], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 819608], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 310064], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 52966]]</t>
+          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 838264], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 362610], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 697370]]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 570171], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 233628], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 399766], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 203196]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 958785], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 803018]]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 333624], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 566660], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 819905], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 915261], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 298973]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 530980], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 259125], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 282941]]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 439398]]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 879911], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 444708], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 122755], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 808175], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 477516]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 385691], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 652322], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 451298]]</t>
         </is>
       </c>
     </row>
@@ -6876,37 +6876,37 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 346654], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 47730], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 205928], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 640389]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 810527], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 133126]]</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 379491]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 28099]]</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.05, 252, 45, 'Optimierungspotential', 926178], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 306050], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 615462], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 539433], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 690471]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 369079], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 522322], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 952438]]</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 197476], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 789474], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 343880], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 447529], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 534867]]</t>
+          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 288594], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 783250]]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 814137], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 663447], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 355106], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 848971], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 291387]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 332368], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 978210], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 855850]]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 37204]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 576890]]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 538678], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 554430], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 199311], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 68930], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 998897], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 147252]]</t>
+          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 139532], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 624416]]</t>
         </is>
       </c>
     </row>
@@ -6916,37 +6916,37 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 969381], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 657586], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 812929], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 639464]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 583344], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 38214]]</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 891084], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 693954]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 650596], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 869745], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 463710], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 945029], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 238424], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 299250]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 452795], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 983383]]</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 904505], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 194501], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 811471], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 360823]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 828786], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 439328]]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 610816], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 332760], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 952287], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 234602], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 293664]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 373024], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 646616], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 888790]]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 459804]]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>[['MCS', 0.05, 756, 45, 'Optimierungspotential', 458045], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 763218], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 848973], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 786243], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 521152]]</t>
+          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 796571], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 171337], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 51845]]</t>
         </is>
       </c>
     </row>
@@ -6956,27 +6956,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 210252], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 25797], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 639688], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 414586]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 909020], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 800008]]</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 539177]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 349119], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 559771], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 184202], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 544032], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 675943], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 798526]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 152199], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 387155], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 632786]]</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 40811], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 828039], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 416675], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 590328], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 386705]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 91458], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 108295], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 762122]]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 768099], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 399728], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 390214], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 518722], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 229797]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 368106], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 726143], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 458468]]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 414143], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 680591], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 810697], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 856400], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 535685], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 223229]]</t>
+          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 631305], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 988452]]</t>
         </is>
       </c>
     </row>
@@ -6996,37 +6996,37 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 679944], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 738340], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 348885]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 973968]]</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 202127], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 426108]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 208227], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 487352], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 400984], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 203631], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 891956]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 425567], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 462581], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 574255]]</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 752097], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 659537], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 616092], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 772004]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 12860], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 823252]]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 615907], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 396186], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 347264], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 381256], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 521764]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 677683], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 330160]]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 227831]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 238772]]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>[['MCS', 0.3, 756, 45, 'Optimierungspotential', 992911], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 776588], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 739177], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 175446], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 900089]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 588305], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 391342], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 619034]]</t>
         </is>
       </c>
     </row>
@@ -7036,37 +7036,37 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 263154], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 503650], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 742485], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 433003]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 243448], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 382303]]</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 376672]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 636581], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 57961], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 41978], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 131851], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 475565], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 187568]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 65783], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 760125]]</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 755157], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 159242], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 937775], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 243702], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 542572]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 583484], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 271680]]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 544623], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 528029], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 872152], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 645684], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 659894], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 200777]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 882417], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 894139], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 674963]]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 478740]]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 96182], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 586601], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 484248], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 605040], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 195356]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 970899], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 275236]]</t>
         </is>
       </c>
     </row>
@@ -7076,27 +7076,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 671719], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 613170], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 824919], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 736707]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 755949], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 586070]]</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 873483]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 480, 'Optimierungspotential', 133458], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 164845], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 551365], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 777904], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 671118], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 560444]]</t>
+          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 297508], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 932152], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 231654]]</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 973666], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 167847], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 866408], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 758906]]</t>
+          <t>[['HPC', 0.3, 252, 45, 'Optimierungspotential', 560149], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 2006]]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 792217], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 517914], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 70701], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 103910], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 871777]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 382364], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 40911], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 605824]]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 190672], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 701482], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 743485], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 34191], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 216682]]</t>
+          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 810363], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 180547], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 566472]]</t>
         </is>
       </c>
     </row>
@@ -7116,37 +7116,37 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 608161], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 969808], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 297176]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 517806], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 488383]]</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 917500], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 876975]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 998702]]</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 229051], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 654310], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 789536], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 435912], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 416670]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 191244], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 67721], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 848958]]</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 607722], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 243362], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 486291], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 681999], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 60486]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 90380], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 730155], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 241269]]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 969034], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 152112], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 411155], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 106496], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 446961]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 794699], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 845817]]</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 231992]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 135775]]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 530500], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 3140], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 627955], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 118265], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 659046], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 574943]]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 39151], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 165674]]</t>
         </is>
       </c>
     </row>
@@ -7156,37 +7156,37 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 979869], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 147278], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 81233], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 509614]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 746495], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 263066]]</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 479885]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 334133], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 561491], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 802263], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 40781], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 187356], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 95407]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 741204], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 18759]]</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 600353], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 393721], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 863277], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 592188]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 598027], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 838409]]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 422773], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 398584], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 238764], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 66346]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 309331], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 223944], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 911458]]</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 102071]]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 759770], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 297921], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 531678], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 414359], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 956698], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 339646]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 241675], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 93406]]</t>
         </is>
       </c>
     </row>
@@ -7196,37 +7196,37 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 504, 480, 'Optimierungspotential', 300996], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 741201], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 524591], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 441472]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 745061]]</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 679043]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[['MCS', 0.26, 756, 45, 'Optimierungspotential', 525754], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 28067], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 200209], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 328724], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 820267]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 78298], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 685123], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 533498]]</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 230996], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 980960], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 284686], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 279924], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 321204]]</t>
+          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 576845], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 198449]]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 128411], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 634400], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 180770], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 206200], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 731792]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 606916], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 402920], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 967556]]</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 853804]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 975891], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 540609], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 776043], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 186169], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 52507]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 890135], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 525296], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 389306]]</t>
         </is>
       </c>
     </row>
@@ -7236,37 +7236,37 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 695873], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 320395], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 905614], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 950006]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 116335], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 710078]]</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 741486], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 430374]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 328842], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 470724], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 282165], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 356668], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 544100]]</t>
+          <t>[['HPC', 0.3, 252, 45, 'Optimierungspotential', 222679], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 922586]]</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 862424], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 550126], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 799825], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 529501], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 841161]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 850351], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 741319]]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 778529], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 52239], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 397059], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 115780], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 527853], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 972390]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 268895], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 490815]]</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 245918]]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 231548], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 887877], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 268199], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 583702], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 496536]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 647338], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 602274]]</t>
         </is>
       </c>
     </row>
@@ -7276,37 +7276,37 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 783238], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 633144], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 744304], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 633912]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 595936], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 776595]]</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 888620]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 63788], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 802450], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 958289], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 446557], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 987167], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 880536], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 590351]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 822236], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 100408], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 954986]]</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 207423], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 934980], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 735241], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 304971]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 272906], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 542617]]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 713475], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 263563], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 391231], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 919561], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 472836]]</t>
+          <t>[['NCS', 0.17, 504, 540, 'Optimierungspotential', 64984], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 884710], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 891417], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 293603]]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 814566]]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 778689], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 318479], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 299430], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 498825], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 323854]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 268222], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 37586], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 561141]]</t>
         </is>
       </c>
     </row>
@@ -7316,37 +7316,37 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 252427], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 634957], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 160511]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 353115], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 590941]]</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 395160]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 118796]]</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 820286], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 390533], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 7681], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 115668], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 44442]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 65226], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 491599], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 243964]]</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 808618], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 472246], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 269388], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 91663]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 667472], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 177653]]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 171603], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 910409], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 629498], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 869262]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 672173], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 856488], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 909075]]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 635386]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 475333], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 153719], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 544266], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 328527], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 592955], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 683772]]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 600948], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 787134]]</t>
         </is>
       </c>
     </row>
@@ -7356,37 +7356,37 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 74047], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 205817], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 113085], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 480160]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 196594], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 985573]]</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 657197], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 382554]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 663614], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 14309], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 240070], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 430792], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 683365]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 927508], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 162762], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 745791]]</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 411977], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 873547], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 752811], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 685387], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 280437], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 400263]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 535169], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 903945], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 17241]]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 862339], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 429432], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 356397], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 852074], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 969401]]</t>
+          <t>[['MCS', 0.2, 756, 45, 'Optimierungspotential', 458168], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 656805]]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 605496]]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 813383], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 825023], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 459701], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 371550], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 805237], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 525229]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 636163], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 78295]]</t>
         </is>
       </c>
     </row>
@@ -7396,37 +7396,37 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 573907], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 690213], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 671822], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 196626]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 948948]]</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 84936], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 328224]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 716398], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 925321], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 651355], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 823495], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 29347], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 925487], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 528353]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 872413], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 18785], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 736604]]</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[['MCS', 0.16, 756, 45, 'Optimierungspotential', 189931], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 356775], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 510109], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 628826]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 445594], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 38469]]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 816098], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 486631], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 673920], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 716251], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 576838], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 985211]]</t>
+          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 225415], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 81367], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 925928]]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 804507]]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 71391], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 47928], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 525834], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 101909], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 173587], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 693057]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 153574], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 441110], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 526833], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 581410]]</t>
         </is>
       </c>
     </row>
@@ -7436,37 +7436,37 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 791451], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 158472], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 969028], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 684311]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 252856], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 419696]]</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 550607]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 193294], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 754644], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 646504], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 535374], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 398210]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 489198], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 613575]]</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 924719], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 937971], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 25691], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 915877]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 239274], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 969313]]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 834937], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 394188], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 618074], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 692860], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 557608]]</t>
+          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 655106], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 826575], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 520624]]</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 352289]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 837335], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 591315], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 380145], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 677926], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 141581]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 338512], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 784584]]</t>
         </is>
       </c>
     </row>
@@ -7476,37 +7476,37 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 584267], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 827975], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 630928], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 519421]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 696339], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 800107]]</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 47128]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 405536], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 322191], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 987014], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 301311], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 694113], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 428619]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 585251], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 800838], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 865112]]</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 99304], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 177269], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 628704], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 264885], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 361734]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 215792], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 199377], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 200047]]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 914186], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 353950], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 574226], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 123198], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 314966]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 356152], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 993051]]</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 809816]]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 531887], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 941505], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 989003], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 282945], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 597524], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 266360]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 615354], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 84192]]</t>
         </is>
       </c>
     </row>
@@ -7516,27 +7516,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 38412], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 703549], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 681195], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 159309]]</t>
+          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 407674], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 51968]]</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 941489]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 504, 480, 'Optimierungspotential', 159303], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 663926], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 953786], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 393735], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 153763], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 213743]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 335848], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 144701]]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 541193], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 813649], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 353348], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 439]]</t>
+          <t>[['MCS', 0.22, 756, 45, 'Optimierungspotential', 752220], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 240440]]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 430166], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 935751], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 606965], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 669950], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 603626]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 811795], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 750504], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 776273]]</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 551622], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 827265], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 991513], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 875358]]</t>
+          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 340931], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 114051], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 16375]]</t>
         </is>
       </c>
     </row>
@@ -7556,37 +7556,37 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 517371], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 301907], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 201171]]</t>
+          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 119871]]</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[['MCS', 0.12, 756, 45, 'Optimierungspotential', 305406]]</t>
+          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 280634]]</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 226424], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 502381], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 818794], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 443537], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 698291]]</t>
+          <t>[['MCS', 0.21, 756, 45, 'Optimierungspotential', 862548], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 47896]]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 812493], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 938334], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 393477], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 790767], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 70656]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 611119], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 506326]]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 755240], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 480209], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 468236], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 762711], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 391423]]</t>
+          <t>[['MCS', 0.05, 504, 45, 'Optimierungspotential', 105155], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 662864]]</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 900102]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 647613]]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 988317], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 524609], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 333123], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 36437], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 594577], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 713279]]</t>
+          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 89890], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 888124]]</t>
         </is>
       </c>
     </row>
@@ -7596,37 +7596,37 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 241210], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 890904], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 982796], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 10321]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 424103], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 541210], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 80748]]</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 274115]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 690697], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 723943], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 721930], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 790566], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 942739], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 748496]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 872226], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 463371], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 641063]]</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 348241], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 2375], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 328291], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 181094], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 762309]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 228197], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 336960]]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 662975], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 431512], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 557565], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 183095], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 587467]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 703274], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 134674], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 190304]]</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 240426]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 866472], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 537789], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 789649], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 618825], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 357496], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 279572]]</t>
+          <t>[['MCS', 0.19, 756, 45, 'Optimierungspotential', 292760], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 875288]]</t>
         </is>
       </c>
     </row>
@@ -7636,37 +7636,37 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 477929], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 693851], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 280869], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 341938]]</t>
+          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 878047], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 883133]]</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 217583], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 599081]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 81030], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 580389], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 432873], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 90900], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 95514], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 188869]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 665094], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 803224]]</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 268916], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 16343], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 541236], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 949879]]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 304763], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 519404]]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>[['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 96373], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 701380], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 591346], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 905346]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 849533], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 383377], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 505444]]</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 311460]]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 924983], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 140060], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 270228], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 326114]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 2992], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 74711]]</t>
         </is>
       </c>
     </row>
@@ -7676,37 +7676,37 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 435990], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 490687], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 402363], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 210974]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 354911]]</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 584742]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 355893], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 548404], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 246387], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 608878], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 206291], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 784604]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 658998], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 577914], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 634231]]</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 414110], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 645515], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 793336], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 788020], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 860471]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 626712], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 397660]]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 128108], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 100507], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 733951], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 326956], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 114126], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 48825]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 511276], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 884175], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 116536]]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 185937]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 504, 480, 'Optimierungspotential', 995057], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 181461], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 558289], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 765972], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 476962], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 901080]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 624333], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 224861]]</t>
         </is>
       </c>
     </row>
@@ -7716,37 +7716,37 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 245004], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 431689], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 819891], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 403011]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 28062], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 640446]]</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 484702]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 617872], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 725971], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 964789], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 717679], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 578895]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 94418], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 697940]]</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 26408], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 992957], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 201050], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 734003]]</t>
+          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 167812]]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 592014], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 48922], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 374026], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 522933], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 247426]]</t>
+          <t>[['HPC', 0.3, 252, 45, 'Optimierungspotential', 163251], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 203893]]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 368811]]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 372388], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 310623], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 495400], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 98748], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 447031]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 30071], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 589258], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 107056]]</t>
         </is>
       </c>
     </row>
@@ -7756,27 +7756,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 866318], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 719565], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 884414], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 993838]]</t>
+          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 854824]]</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 617355]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 937425], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 656849], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 711876], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 905754], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 316364], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 127730]]</t>
+          <t>[['MCS', 0.27, 756, 45, 'Optimierungspotential', 776402], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 497122], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 566266]]</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 877165], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 241919], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 426523], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 632931], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 873366]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 357182], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 381], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 223870]]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 849761], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 753498], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 379336], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 462723], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 109051]]</t>
+          <t>[['MCS', 0.09, 504, 45, 'Optimierungspotential', 746975], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 369592]]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 622241], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 724681], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 740907], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 923902], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 367293], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 472654]]</t>
+          <t>[['MCS', 0.07, 756, 45, 'Optimierungspotential', 567228], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 689572]]</t>
         </is>
       </c>
     </row>
@@ -7796,37 +7796,37 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 787273], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 121269], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 688073]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 4797], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 670574]]</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 738504], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 13341]]</t>
+          <t>[['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 847808]]</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 349787], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 740938], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 141537], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 753926], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 508964]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 583528], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 269843]]</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 626520], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 748506], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 955965], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 975166], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 447234]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 638804], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 71952]]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 637419], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 521836], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 195663], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 932143], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 162979]]</t>
+          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 50085], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 71479]]</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[['MCS', 0.11, 756, 45, 'Optimierungspotential', 972345]]</t>
+          <t>[['HPC', 0.05, 252, 45, 'Optimierungspotential', 734525]]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 890901], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 732089], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 817842], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 257117], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 320752], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 579307]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 737395], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 397038]]</t>
         </is>
       </c>
     </row>
@@ -7836,27 +7836,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 576267], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 798366], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 934581], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 848247]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 59292]]</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[['MCS', 0.18, 756, 45, 'Optimierungspotential', 589217]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 81490], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 89530], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 613108], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 976496], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 485289], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 183270], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 50903]]</t>
+          <t>[['NCS', 0.06, 504, 540, 'Optimierungspotential', 134597], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 322763], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 440390]]</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 866950], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 921111], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 65888], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 703942]]</t>
+          <t>[['HPC', 0.08, 252, 45, 'Optimierungspotential', 853812], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 467758]]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 277134], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 547648], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 140116], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 97842]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 752078], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 212994], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 93774], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 114904]]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 147290], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 690765], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 445357], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 806014], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 455453]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 919473], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 844022]]</t>
         </is>
       </c>
     </row>
@@ -7876,37 +7876,37 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 784878], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 853967], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 98555], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 712662]]</t>
+          <t>[['NCS', 0.25, 756, 540, 'Optimierungspotential', 202235], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 181552], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 979204]]</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 110626]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 141836], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 528308], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 379381], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 54316], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 792353]]</t>
+          <t>[['MCS', 0.05, 756, 45, 'Optimierungspotential', 868366], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 410677]]</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 600548], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 180250], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 592339], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 400595], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 943954]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 606845], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 235871]]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 504, 480, 'Optimierungspotential', 996513], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 644656], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 364544], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 506249], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 906613], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 705296]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 700375], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 107431]]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 705996]]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 20845], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 591967], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 38335], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 226849], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 149949]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 164068], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 508497], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 562876]]</t>
         </is>
       </c>
     </row>
@@ -7916,37 +7916,37 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 479504], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 950180], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 199328], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 341120]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 625978]]</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 504, 480, 'Optimierungspotential', 484344], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 662150]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 622923], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 635603], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 434764], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 52644], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 240367], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 747188], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 935402]]</t>
+          <t>[['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 319042], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 338090]]</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 445420], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 741279], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 33805], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 445445], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 63700]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 445796], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 48665]]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 90838], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 251078], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 730228], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 625095], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 771844]]</t>
+          <t>[['HPC', 0.18, 252, 45, 'Optimierungspotential', 60216], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 54921]]</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 335587]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 104230]]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 812001], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 176501], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 154212], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 760193], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 382137], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 69037]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 481464], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 955801]]</t>
         </is>
       </c>
     </row>
@@ -7956,37 +7956,37 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 569707], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 668041], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 938586], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 50234]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 20499]]</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[['MCS', 0.29, 756, 45, 'Optimierungspotential', 240798]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 910372], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 134052], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 516633], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 201681], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 946859]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 942741], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 863766], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 525803]]</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 551099], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 931284], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 687368], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 294355]]</t>
+          <t>[['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 322489], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 841023]]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 252, 480, 'Optimierungspotential', 96606], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 363232], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 680968], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 160878], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 611375]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 645609], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 855107], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 404188]]</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 930355]]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 504, 480, 'Optimierungspotential', 164886], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 704672], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 282044], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 194383], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 445762], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 604392]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 475664]]</t>
         </is>
       </c>
     </row>
@@ -7996,37 +7996,37 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 956984], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 173697], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 345167], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 689423]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 805165], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 776661]]</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 266474]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 105625], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 970311], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 711451], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 228381], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 993519], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 602256]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 79259]]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 802004], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 420964], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 324239], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 772298], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 11090]]</t>
+          <t>[['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 299799]]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 966323], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 159943], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 291198], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 178234], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 195668], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 155516]]</t>
+          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 696618], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 97674]]</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 715368]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 684195], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 254971], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 35954], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 212593], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 521826]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 721275], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 472004], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 812282]]</t>
         </is>
       </c>
     </row>
@@ -8036,37 +8036,37 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 504, 480, 'Optimierungspotential', 135582], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 260204], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 570658]]</t>
+          <t>[['NCS', 0.13, 504, 540, 'Optimierungspotential', 805982], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 47654]]</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 633185], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 805170]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 585582]]</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 914882], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 459536], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 607194], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 178465], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 552850], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 590049]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 539720], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 629365]]</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 64372], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 359571], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 595139], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 291336]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 845313], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 170069]]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 382104], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 824376], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 454244], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 748099], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 770151]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 155208], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 650557], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 910099]]</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 218513]]</t>
+          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 5526]]</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 699463], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 994582], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 548309], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 229512], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 118100], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 826397]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 729876], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 909116]]</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 758590], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 447626], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 622918], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 274928]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 314693]]</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8086,17 +8086,17 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 449285], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 524564], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 303913], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 934458], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 658428], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 614328]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 133439], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 999692], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 114819]]</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 866904], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 301559], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 516177], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 760150], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 144446]]</t>
+          <t>[['NCS', 0.06, 504, 540, 'Optimierungspotential', 833639], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 348462]]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 504, 480, 'Optimierungspotential', 821530], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 148864], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 967706], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 861104]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 944997], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 260266]]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 122132], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 151490], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 942942], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 753857], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 271657]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 649939]]</t>
         </is>
       </c>
     </row>
@@ -8116,27 +8116,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 86155], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 888766], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 477493], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 257099], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 381216]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 304327]]</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 632260], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 566796]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 846530], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 860353], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 427814], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 776351], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 410732], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 780661]]</t>
+          <t>[['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 73562], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 146942]]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 116501], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 828221], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 439213], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 658105], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 678522]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 36429], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 345678]]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 504, 480, 'Optimierungspotential', 424950], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 232444], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 811223], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 883761], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 883996], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 884715]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 770420], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 749192]]</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 439662], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 676225], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 795757], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 438701], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 968854], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 710223]]</t>
+          <t>[['NCS', 0.25, 504, 540, 'Optimierungspotential', 999879], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 132329], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 743305]]</t>
         </is>
       </c>
     </row>
@@ -8156,37 +8156,37 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 683680], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 287008], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 569098]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 123382], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 22178]]</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 839]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 945095], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 104344], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 693522], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 46096], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 920401], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 358730], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 802426]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 743408], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 163555]]</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 873932], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 574082], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 73140], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 236506], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 163696]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 316749], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 900692]]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 454432], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 268715], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 54595], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 912625], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 645352], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 914549]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 906438], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 584093]]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 831271]]</t>
+          <t>[['MCS', 0.14, 756, 45, 'Optimierungspotential', 667980]]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 396255], ['NCS', 0.29, 504, 480, 'Optimierungspotential', 514229], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 119657], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 814152], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 471090], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 452934]]</t>
+          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 400583], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 166620]]</t>
         </is>
       </c>
     </row>
@@ -8196,27 +8196,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 257965], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 610619], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 328946], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 701405], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 539124]]</t>
+          <t>[['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 185418], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 859925]]</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 744080], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 848987]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 445523], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 74599], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 475260], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 791420], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 9613], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 278897]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 927807], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 159825]]</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 986778], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 787256], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 206721], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 431783], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 760258]]</t>
+          <t>[['HPC', 0.3, 252, 45, 'Optimierungspotential', 902015], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 198048]]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 87320], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 141576], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 900681], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 167308], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 968152], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 687587]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 72140], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 947898], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 211351]]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 19558], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 637180], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 571872], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 538525], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 979437], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 119581]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 826562], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 180628]]</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 415261], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 114606], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 875269], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 209811]]</t>
+          <t>[['MCS', 0.1, 504, 45, 'Optimierungspotential', 597820]]</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8246,27 +8246,27 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 497683], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 454417], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 173806], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 588709], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 644713], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 881519], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 316264], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 697657]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 780050], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 782322], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 228229]]</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 853906], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 78516], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 135648], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 377430], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 396458], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 278742]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 333147], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 191384]]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 505650], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 682955], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 372196], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 199198], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 220268], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 315232]]</t>
+          <t>[['HPC', 0.28, 252, 45, 'Optimierungspotential', 929110], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 454873]]</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 370002]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 307253], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 434333], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 711690], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 352396], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 311952], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 881554], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 285155]]</t>
+          <t>[['HPC', 0.06, 252, 45, 'Optimierungspotential', 205484], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 495286]]</t>
         </is>
       </c>
     </row>
@@ -8276,37 +8276,37 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 186378], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 122031], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 756926], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 386148], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 342740]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 656591], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 958491]]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 413716], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 514001]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 371044], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 425010], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 735208], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 764285], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 233134], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 201568], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 501120]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 823638], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 127955]]</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 413888], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 468433], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 760250], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 265360], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 943983], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 377673]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 292737], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 16946]]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 69100], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 267136], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 895559], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 18244], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 709312], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 39002]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 858700], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 381994], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 15453]]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 348765]]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 59706], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 956556], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 637231], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 333372], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 636728], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 296416]]</t>
+          <t>[['NCS', 0.12, 756, 540, 'Optimierungspotential', 744291], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 946958], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 239279]]</t>
         </is>
       </c>
     </row>
@@ -8316,37 +8316,37 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 151449], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 994443], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 495754], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 679205], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 475423]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 10028], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 277053]]</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 128172], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 490429]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 30857]]</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 13587], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 857720], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 980319], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 194573], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 374625], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 553039], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 7835]]</t>
+          <t>[['NCS', 0.14, 504, 540, 'Optimierungspotential', 914069], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 916841], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 602446]]</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 987529], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 125775], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 767638], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 643582], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 623037], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 509305]]</t>
+          <t>[['NCS', 0.16, 756, 540, 'Optimierungspotential', 783326], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 39609], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 529922]]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 504, 480, 'Optimierungspotential', 338046], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 961164], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 390063], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 137762], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 218320], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 873464], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 294372]]</t>
+          <t>[['NCS', 0.15, 504, 540, 'Optimierungspotential', 394569], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 519165], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 845587]]</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[['MCS', 0.24, 756, 45, 'Optimierungspotential', 888852]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 21140]]</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 770453], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 844520], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 399452], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 642479], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 779636], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 667924], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 408620]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 572458], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 115110]]</t>
         </is>
       </c>
     </row>
@@ -8356,37 +8356,37 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 844532], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 841969], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 742888], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 663444], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 269117]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 612060], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 289980]]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[['MCS', 0.05, 756, 45, 'Optimierungspotential', 1524]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 917124]]</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 232118], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 776707], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 200169], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 708009], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 45306], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 976693], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 168872], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 625780]]</t>
+          <t>[['NCS', 0.06, 504, 540, 'Optimierungspotential', 798642], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 353352], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 638952]]</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 520902], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 780545], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 47940], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 470250], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 362689], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 56299]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 893520]]</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 756, 480, 'Optimierungspotential', 30304], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 577573], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 285174], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 468583], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 156883], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 669364], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 752577]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 717636], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 263609]]</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 318836]]</t>
+          <t>[['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 182692]]</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 330189], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 985035], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 511648], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 74345], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 291342], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 813908], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 826185], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 460760]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 361172], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 335891]]</t>
         </is>
       </c>
     </row>
@@ -8396,27 +8396,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 520523], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 884584], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 653255], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 321689], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 564720], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 99636]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 200578]]</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 244373]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 520777], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 126100], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 412109], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 369047], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 206658], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 44547], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 286473], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 2783]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 841239]]</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 163728], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 810419], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 549979], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 332889], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 70125], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 959006], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 750873]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 168043], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 626992], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 208335]]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 733715], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 62860], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 289528], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 154136], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 268028], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 791643], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 623263]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 147214], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 765396], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 983999]]</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 34229], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 936508], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 137935], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 834136], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 877948], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 486678]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 897390], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 430339], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 166602]]</t>
         </is>
       </c>
     </row>
@@ -8436,37 +8436,37 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 97375], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 581398], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 442746], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 656014], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 77371]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 574345], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 806692], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 970577]]</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 504, 480, 'Optimierungspotential', 305308], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 950030]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 517288], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 97095], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 680922], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 815420], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 553234], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 113411], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 685219], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 379189]]</t>
+          <t>[['NCS', 0.17, 504, 540, 'Optimierungspotential', 285808], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 464506], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 798202]]</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 952000], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 177714], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 860863], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 809170], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 945859], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 206554]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 8621], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 18898]]</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 798890], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 438435], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 550122], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 398194], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 834729], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 118475], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 941477]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 700864], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 461383], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 416404]]</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[['MCS', 0.17, 756, 45, 'Optimierungspotential', 365053]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 480, 'Optimierungspotential', 355729], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 95932], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 583434], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 959544], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 597641], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 986802], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 50994], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 400866]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 386], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 871474], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 89559]]</t>
         </is>
       </c>
     </row>
@@ -8476,37 +8476,37 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 254215], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 81645], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 263679], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 645286], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 46406], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 83173]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 835980]]</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 252, 480, 'Optimierungspotential', 515026], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 690272]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 391249], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 443883], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 220426], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 436205], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 201611], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 697290], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 376379], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 806071], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 906651]]</t>
+          <t>[['NCS', 0.16, 756, 540, 'Optimierungspotential', 590610], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 851741], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 329943]]</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 685036], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 488277], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 967878], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 872831], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 131674], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 677064], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 652826], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 435749]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 387915], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 76875]]</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 623271], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 254513], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 776840], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 134068], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 351126], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 27982], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 369922], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 117259]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 567287], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 606381], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 107525]]</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 368399]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 390496]]</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 757476], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 95161], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 617094], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 466397], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 433134], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 806599], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 4500], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 253219], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 180827]]</t>
+          <t>[['MCS', 0.08, 504, 45, 'Optimierungspotential', 128833], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 439744]]</t>
         </is>
       </c>
     </row>
@@ -8516,37 +8516,37 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 712917], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 372626], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 666029], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 352851], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 69724], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 994249]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 743643], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 949447]]</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 352435], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 918800]]</t>
+          <t>[['HPC', 0.27, 252, 45, 'Optimierungspotential', 18509]]</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 455711], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 543415], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 23905], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 452912], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 828002], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 57272], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 805266], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 492652], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 441395]]</t>
+          <t>[['NCS', 0.16, 756, 540, 'Optimierungspotential', 172525], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 139249], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 720473]]</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 504, 480, 'Optimierungspotential', 783202], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 893224], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 807440], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 9165], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 398266], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 313531]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 322577], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 45759], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 351130]]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 572480], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 488318], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 318129], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 804085], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 188990], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 154824], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 488467], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 822618]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 482796], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 282842], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 902707], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 234029]]</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 292275]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 504, 480, 'Optimierungspotential', 463243], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 674366], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 688792], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 745910], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 288905], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 814874], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 652882], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 506031]]</t>
+          <t>[['NCS', 0.1, 504, 540, 'Optimierungspotential', 536546], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 391187], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 213306]]</t>
         </is>
       </c>
     </row>
@@ -8556,37 +8556,37 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 378082], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 912463], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 419666], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 9839], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 541699], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 557859]]</t>
+          <t>[['NCS', 0.29, 756, 540, 'Optimierungspotential', 381288], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 520075], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 159552]]</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[['MCS', 0.25, 756, 45, 'Optimierungspotential', 504150]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 127289], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 786552], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 304857], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 600113], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 339071], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 58300], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 530437], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 743669], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 647495]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 194900], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 174675], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 730660]]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 258001], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 143756], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 893562], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 771773], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 777152], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 77420], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 516829], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 52237]]</t>
+          <t>[['NCS', 0.07, 756, 540, 'Optimierungspotential', 314648], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 964941], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 180598]]</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 532907], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 782441], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 810670], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 980581], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 576320], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 80223], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 350766], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 169602]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 618426], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 290454], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 295830]]</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 39859]]</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 504, 480, 'Optimierungspotential', 989967], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 276082], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 149173], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 980112], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 330459], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 449886], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 96480], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 373412]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 964020], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 50599], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 760750]]</t>
         </is>
       </c>
     </row>
@@ -8596,37 +8596,37 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 952642], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 289999], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 501636], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 422461], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 789711], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 231799]]</t>
+          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 616177]]</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 604112]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 253527], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 206247], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 818588], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 192308], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 930255], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 646587], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 449029], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 590604], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 351801]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 527401], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 829815], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 516611]]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 425457], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 909618], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 84712], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 947969], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 138975], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 841928], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 354303]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 800914], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 133275]]</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 344929], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 130606], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 260130], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 526394], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 259134], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 107331], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 254585], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 815050]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 413549], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 980987], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 131374]]</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 514607]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 365728]]</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 480, 'Optimierungspotential', 322766], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 679711], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 538437], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 17512], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 219050], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 626228], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 715143], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 587453], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 96990]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 775173], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 206203]]</t>
         </is>
       </c>
     </row>
@@ -8636,37 +8636,37 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 760202], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 502830], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 127067], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 65002], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 558336], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 70908], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 398490]]</t>
+          <t>[['NCS', 0.22, 504, 540, 'Optimierungspotential', 147371], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 919476], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 450679]]</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 638898], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 212734]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 456688], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 941221], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 654265], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 823721], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 496667], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 773453], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 812076], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 923479], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 489042], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 100156]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 648951], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 116321], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 850008]]</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 357257], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 890506], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 66271], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 437028], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 747377], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 521895], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 900551], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 356002]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 911225], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 541131], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 816109]]</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 201879], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 898489], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 141118], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 376299], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 829291], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 130136], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 747641], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 388717], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 384843]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 929258], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 106699], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 966903]]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 202464]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 508134], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 838979], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 80351], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 332778], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 612175], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 322545], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 188728], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 364837], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 433287]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 416887], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 187808], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 553860]]</t>
         </is>
       </c>
     </row>
@@ -8676,37 +8676,37 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 351112], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 494164], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 291242], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 351347], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 264020], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 516092]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 246933], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 332364]]</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 946134], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 153437]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 867532], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 957106], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 860779], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 748422], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 549040], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 837810], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 183567], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 616942], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 355280]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 641408], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 176879], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 310681]]</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 17837], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 97570], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 318179], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 563776], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 354675], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 287961], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 111375], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 75316]]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 610229], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 574716]]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 504, 480, 'Optimierungspotential', 379104], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 326138], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 773694], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 285379], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 504218], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 103362], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 222742]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 747060], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 711454], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 114542]]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 240000]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 2522]]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 457208], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 796424], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 530801], ['NCS', 0.25, 504, 480, 'Optimierungspotential', 92213], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 782163], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 679996], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 572452], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 230004]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 429859], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 449780], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 232871]]</t>
         </is>
       </c>
     </row>
@@ -8716,27 +8716,27 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 504, 480, 'Optimierungspotential', 782528], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 644710], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 199031], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 337278], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 643547], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 481604], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 972127]]</t>
+          <t>[['NCS', 0.17, 756, 540, 'Optimierungspotential', 592932], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 368422]]</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 291379]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 959976], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 368711], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 428200], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 745230], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 614984], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 461928], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 197479], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 551586], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 910657], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 262013]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 20437], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 886742], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 69879]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 504, 480, 'Optimierungspotential', 265552], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 861765], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 672734], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 922377], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 895409], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 298160], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 169627], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 717355]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 960550], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 12055]]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 397586], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 171157], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 17597], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 844089], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 745943], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 125216], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 520822], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 734236], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 304269], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 420698]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 926812], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 5390], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 278568]]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 611525], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 504815], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 901580], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 983770], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 314446], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 61558], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 801841], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 422420], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 639135], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 503917]]</t>
+          <t>[['NCS', 0.07, 504, 540, 'Optimierungspotential', 654795], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 75633], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 271875]]</t>
         </is>
       </c>
     </row>
@@ -8756,37 +8756,37 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 191907], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 432683], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 726087], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 217544], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 525692], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 333227], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 252823]]</t>
+          <t>[['NCS', 0.24, 756, 540, 'Optimierungspotential', 953805], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 838647], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 651101]]</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 195720], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 149169]]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 770982]]</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 89234], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 635496], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 719640], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 439037], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 695909], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 929592], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 172019], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 722520], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 406750], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 196259], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 221953]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 799174], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 554336], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 678067]]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 155181], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 772408], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 741397], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 618867], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 831820], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 490625], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 356806], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 645762]]</t>
+          <t>[['NCS', 0.26, 756, 540, 'Optimierungspotential', 95396], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 227969], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 1552]]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 445948], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 717440], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 497290], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 802686], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 615287], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 259098], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 517284], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 88182]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 699738], ['NCS', 0.25, 252, 540, 'Optimierungspotential', 57809], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 91755], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 174616]]</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 986707], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 994161]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 974350], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 95816], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 949648], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 5139], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 319578], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 344371], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 99197], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 518189], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 405797], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 580290]]</t>
+          <t>[['NCS', 0.13, 504, 540, 'Optimierungspotential', 204211], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 371099]]</t>
         </is>
       </c>
     </row>
@@ -8796,37 +8796,37 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 504, 480, 'Optimierungspotential', 10882], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 894934], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 487863], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 514978], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 481421], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 196528], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 518221]]</t>
+          <t>[['MCS', 0.06, 756, 45, 'Optimierungspotential', 907245]]</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 504, 480, 'Optimierungspotential', 23883], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 740269], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 460837]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 204114], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 768764], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 798804], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 693885], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 641235], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 3691], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 674406], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 407510], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 908954], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 734907]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 660904], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 951136], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 293030]]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 755684], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 460344], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 307025], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 62289], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 277586], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 155786], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 699293], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 913816]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 754853], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 236015]]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 857712], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 97920], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 750896], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 853171], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 749815], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 606175], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 147854], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 107545], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 218756]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 173572], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 739952], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 574423]]</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 617710], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 99455]]</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 193053], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 448378], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 252354], ['NCS', 0.05, 504, 480, 'Optimierungspotential', 903197], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 213976], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 865038], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 841486], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 786421], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 886288]]</t>
+          <t>[['NCS', 0.21, 504, 540, 'Optimierungspotential', 811247], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 981032], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 945148]]</t>
         </is>
       </c>
     </row>
@@ -8836,37 +8836,37 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 404546], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 762888], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 337581], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 298086], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 555467], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 275898], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 690036]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 993031], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 281201]]</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 146846]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 615337]]</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 504, 480, 'Optimierungspotential', 720196], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 946610], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 837907], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 201630], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 236486], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 970904], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 652510], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 888345], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 146519], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 844156]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 732123], ['NCS', 0.12, 252, 540, 'Optimierungspotential', 200466], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 315915]]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 754219], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 371953], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 35474], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 155767], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 269955], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 391443], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 214830], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 953802], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 548006], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 841248]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 168096], ['NCS', 0.14, 756, 540, 'Optimierungspotential', 960570], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 247623], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 259253]]</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 312370], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 370536], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 483332], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 592527], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 497373], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 205465], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 893433], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 486745], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 257280]]</t>
+          <t>[['NCS', 0.11, 504, 540, 'Optimierungspotential', 749870], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 655461], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 113924]]</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 388455]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 806565], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 873303], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 663442], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 717575], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 653481], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 926909], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 685518], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 129819], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 796747], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 287502]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 963629], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 720646], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 292975]]</t>
         </is>
       </c>
     </row>
@@ -8876,37 +8876,37 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 504, 480, 'Optimierungspotential', 824370], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 369493], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 848394], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 550508], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 214195], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 653304], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 420237]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 98894], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 175808], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 8561]]</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 504, 480, 'Optimierungspotential', 25788], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 480682]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 945437], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 822147], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 149213], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 303926], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 307310], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 576764], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 638558], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 689311], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 742131], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 223898], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 271723]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 468288], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 338528], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 714016]]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 401635], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 639761], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 361280], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 183988], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 494453], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 358453], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 843034], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 43024]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 56086], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 337334], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 98369]]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 240388], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 340281], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 656232], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 545619], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 135719], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 748606], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 764672], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 895544], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 452435], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 121131]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 329564], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 427067], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 75653]]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 405996], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 171207]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 790184], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 574535], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 325874], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 73821], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 991296], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 895208], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 457213], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 447785], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 219021], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 694801]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 633449], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 746851], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 88942]]</t>
         </is>
       </c>
     </row>
@@ -8916,37 +8916,37 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 588169], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 13531], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 937442], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 363093], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 853945], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 735396], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 437008], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 733528]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 962107], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 793372]]</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 618820], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 43116]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 790729], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 398572], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 245261], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 715545], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 66248], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 698140], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 397951], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 621704], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 808360], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 188480], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 837866]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 530413], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 655912], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 668083]]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 874861], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 175073], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 202112], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 623836], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 56950], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 973125], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 82643], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 376535]]</t>
+          <t>[['NCS', 0.3, 252, 540, 'Optimierungspotential', 303133], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 535323]]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 104147], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 719504], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 920695], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 622705], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 772749], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 225160], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 117880], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 118663], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 37513]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 843966], ['NCS', 0.16, 252, 540, 'Optimierungspotential', 744833], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 178656], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 944860]]</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.15, 252, 45, 'Optimierungspotential', 892686]]</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 467359], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 304627], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 623825], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 744859], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 919022], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 197317], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 846213], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 258429], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 596222], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 245528]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 813940], ['NCS', 0.1, 252, 540, 'Optimierungspotential', 763470], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 604178]]</t>
         </is>
       </c>
     </row>
@@ -8956,37 +8956,37 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 838611], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 872609], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 912811], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 857392], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 518028], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 273746], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 355049]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 619406], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 581474]]</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 264888]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 611758], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 740039], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 118497], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 445310], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 254611], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 533026], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 679302], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 350645], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 819360], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 391267], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 676856], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 387308]]</t>
+          <t>[['NCS', 0.08, 504, 540, 'Optimierungspotential', 49092], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 572746], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 105800]]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 659344], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 255776], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 897650], ['NCS', 0.29, 504, 480, 'Optimierungspotential', 118784], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 41727], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 679446], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 9514], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 97731], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 433239]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 497979], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 190926], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 89937]]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 882829], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 579152], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 770669], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 555672], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 864233], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 1932], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 212600], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 297735], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 21212]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 49614], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 451010], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 494212]]</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 993312]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 558787]]</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 68936], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 881576], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 373638], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 327211], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 775516], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 694506], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 816204], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 724079], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 534439], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 446791]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 719918], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 436746], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 23141]]</t>
         </is>
       </c>
     </row>
@@ -8996,37 +8996,37 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 871898], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 526577], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 810130], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 120137], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 599789], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 721668], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 342856], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 465187]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 480049], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 768941], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 666583]]</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 282366], ['NCS', 0.22, 504, 480, 'Optimierungspotential', 517967], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 494103]]</t>
+          <t>[['HPC', 0.23, 252, 45, 'Optimierungspotential', 856742]]</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 880507], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 652028], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 128002], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 392786], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 360243], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 674700], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 180659], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 977513], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 176701], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 374876], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 738664]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 350361], ['NCS', 0.28, 504, 540, 'Optimierungspotential', 83835], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 494256], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 670417]]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 682322], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 809420], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 314132], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 218143], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 308307], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 651241], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 451922], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 758092], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 265382]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 387286], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 171617]]</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 376347], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 604063], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 39413], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 985838], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 322201], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 971867], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 166608], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 58745], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 322025], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 459888]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 476795], ['NCS', 0.19, 252, 540, 'Optimierungspotential', 791121], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 702714], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 389694]]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 134586]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 816050], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 202369], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 427055], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 818339], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 864766], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 615589], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 168645], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 440745], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 709714], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 70637], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 699548]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 918808], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 709899], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 677411]]</t>
         </is>
       </c>
     </row>
@@ -9036,37 +9036,37 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 242823], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 659041], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 325246], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 591071], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 84472], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 39479], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 267020]]</t>
+          <t>[['NCS', 0.29, 504, 540, 'Optimierungspotential', 48715], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 253108]]</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 678330], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 851136]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 504, 480, 'Optimierungspotential', 414392], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 271963], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 33851], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 298067], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 20027], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 524244], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 777116], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 72791], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 367627], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 39885], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 848538]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 212219], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 203951]]</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 251382], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 922822], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 860982], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 33888], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 532835], ['NCS', 0.3, 504, 480, 'Optimierungspotential', 957261], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 412297], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 791838], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 265666]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 910925], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 657502], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 296677]]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 673427], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 731782], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 237096], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 469760], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 794431], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 565844], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 992657], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 431931], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 733862]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 172163], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 385760], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 627953]]</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 944526]]</t>
+          <t>[['HPC', 0.21, 252, 45, 'Optimierungspotential', 95223]]</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 942053], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 488968], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 881017], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 647671], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 563462], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 651423], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 811062], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 806790], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 449954], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 660353]]</t>
+          <t>[['NCS', 0.07, 504, 540, 'Optimierungspotential', 404219], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 216262]]</t>
         </is>
       </c>
     </row>
@@ -9076,37 +9076,37 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 384535], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 272918], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 228607], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 636767], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 499029], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 725248], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 317622], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 198665]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 646647], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 148791]]</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 556316]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 771253], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 898174], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 441019], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 833094], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 614886], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 341408], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 792209], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 332633], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 177716], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 586386], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 715344]]</t>
+          <t>[['NCS', 0.11, 504, 540, 'Optimierungspotential', 770066], ['NCS', 0.28, 252, 540, 'Optimierungspotential', 717807], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 773520], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 512492]]</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 645315], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 441865], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 240609], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 252018], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 398066], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 135215], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 103074], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 974499], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 615212]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 500306], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 305811]]</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 905291], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 532037], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 788778], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 482062], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 71662], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 587738], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 846634], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 826381], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 308574], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 326309]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 944261], ['NCS', 0.29, 252, 540, 'Optimierungspotential', 462208], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 632281]]</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 355829]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 17156], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 508997], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 399761], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 597324], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 251598], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 472811], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 969518], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 396259], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 703844], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 123071], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 134150]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 419543], ['NCS', 0.29, 252, 540, 'Optimierungspotential', 508565], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 474902], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 554932]]</t>
         </is>
       </c>
     </row>
@@ -9116,37 +9116,37 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 587475], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 849771], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 280994], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 524486], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 344159], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 247136], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 9561]]</t>
+          <t>[['NCS', 0.3, 252, 540, 'Optimierungspotential', 995515], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 272600]]</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 224827], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 737578]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 982259]]</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 167097], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 934836], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 674743], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 581353], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 806008], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 217119], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 116813], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 84939], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 869393], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 90292], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 176351], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 260041]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 523777], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 433001], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 156789]]</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 528401], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 95401], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 488791], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 368592], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 51626], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 910856], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 412], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 833800], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 536244]]</t>
+          <t>[['NCS', 0.09, 504, 540, 'Optimierungspotential', 521868], ['NCS', 0.12, 252, 540, 'Optimierungspotential', 641164], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 622027], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 718708]]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 480, 'Optimierungspotential', 650751], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 729630], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 514410], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 555929], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 388647], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 663868], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 529727], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 882961], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 254800]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 846642], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 42244], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 98809]]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 99532], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 235750]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 757763]]</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 992772], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 320054], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 415343], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 34087], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 940951], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 191011], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 527986], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 381953], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 657265], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 442318]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 204384], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 526800]]</t>
         </is>
       </c>
     </row>
@@ -9156,37 +9156,37 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 504, 480, 'Optimierungspotential', 866632], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 202057], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 879026], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 463741], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 715511], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 734824], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 110203], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 49596], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 744133]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 335173], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 208451], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 517688]]</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 222516], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 879537], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 500195]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 717939], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 296086], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 233094], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 312057], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 252517], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 539637], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 30995], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 257540], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 27611], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 950956]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 50972], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 261957], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 235546]]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 279443], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 613525], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 91756], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 407699], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 556313], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 170038], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 270035], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 329848], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 284881]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 929483], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 421413]]</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 687917], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 403639], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 28164], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 767772], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 30682], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 820021], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 994907], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 690824], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 531462], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 729644]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 656137], ['NCS', 0.23, 756, 540, 'Optimierungspotential', 502035], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 453907], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 222940]]</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.25, 252, 45, 'Optimierungspotential', 261270]]</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 399240], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 890992], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 19409], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 731558], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 605938], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 878158], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 38938], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 758581], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 580362], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 825650], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 16391]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 189139], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 543635], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 435224]]</t>
         </is>
       </c>
     </row>
@@ -9196,37 +9196,37 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 233738], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 67738], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 518425], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 918737], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 455214], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 65112], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 495815]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 69113], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 958162]]</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 787791]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 725922], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 673750], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 465191], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 962536], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 853022], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 895567], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 508832], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 849132], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 299567], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 841975], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 483053], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 847112]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 931448], ['NCS', 0.08, 252, 540, 'Optimierungspotential', 592307], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 290888]]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 721638], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 166832], ['NCS', 0.25, 504, 480, 'Optimierungspotential', 306447], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 635094], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 304241], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 718313], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 330500], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 87166], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 516045], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 14231]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 82593], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 741811], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 363217]]</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 504, 480, 'Optimierungspotential', 948622], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 185363], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 969553], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 556673], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 40316], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 34874], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 875793], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 100206], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 957826]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 325786], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 540918], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 725025]]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 504, 480, 'Optimierungspotential', 578696]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 480, 'Optimierungspotential', 642930], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 126853], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 22188], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 46479], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 744983], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 904718], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 826736], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 864748], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 955715], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 111096], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 309735]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 82481], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 949739]]</t>
         </is>
       </c>
     </row>
@@ -9236,37 +9236,37 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 203391], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 308869], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 514644], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 880805], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 779910], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 622082], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 418337], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 839105], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 834687]]</t>
+          <t>[['NCS', 0.22, 756, 540, 'Optimierungspotential', 116950], ['NCS', 0.06, 252, 540, 'Optimierungspotential', 227378], ['HPC', 0.11, 504, 65, 'kein Optimierungspotential', 505461]]</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 729539], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 609090]]</t>
+          <t>[['HPC', 0.13, 252, 45, 'Optimierungspotential', 348938]]</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 682696], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 694492], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 282367], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 782476], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 339348], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 570261], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 871259], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 531926], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 704132], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 883548], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 564766], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 539834]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 160008], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 854527], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 488780]]</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 832167], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 416456], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 938841], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 965720], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 382102], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 406128], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 370068], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 139893]]</t>
+          <t>[['NCS', 0.14, 504, 540, 'Optimierungspotential', 584932], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 479817]]</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 386046], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 418717], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 329268], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 628585], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 748866], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 658205], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 584533], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 680949], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 979966], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 880656]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 890431], ['NCS', 0.18, 504, 540, 'Optimierungspotential', 554733], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 410815], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 608805]]</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 250348], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 427001]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 19565], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 744144], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 419517], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 808027], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 13004], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 884657], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 436148], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 530577], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 194234], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 904777]]</t>
+          <t>[['NCS', 0.24, 504, 540, 'Optimierungspotential', 59486], ['NCS', 0.29, 252, 540, 'Optimierungspotential', 410538], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 233804], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 288100]]</t>
         </is>
       </c>
     </row>
@@ -9276,37 +9276,37 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 902462], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 257146], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 248616], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 88328], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 884411], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 411354], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 255316]]</t>
+          <t>[['NCS', 0.27, 756, 540, 'Optimierungspotential', 713175], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 249523]]</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 890587], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 604729], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 557999]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 453564], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 995796], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 866799], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 480955], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 916059], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 580246], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 510402], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 403303], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 559664], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 340480], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 36582]]</t>
+          <t>[['NCS', 0.3, 252, 540, 'Optimierungspotential', 751890], ['NCS', 0.09, 252, 540, 'Optimierungspotential', 441886], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 435568], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 626071]]</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 833440], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 601131], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 798785], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 660987], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 993797], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 394104], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 360962], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 111459], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 171503]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 647010], ['NCS', 0.21, 252, 540, 'Optimierungspotential', 888732], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 843145]]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 569420], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 655838], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 311899], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 908663], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 74406], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 435005], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 275256], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 98684], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 26809]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 39357], ['NCS', 0.18, 252, 540, 'Optimierungspotential', 366516], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 327958]]</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 172806]]</t>
+          <t>[['NCS', 0.14, 504, 540, 'Optimierungspotential', 375491], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 817329]]</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 283269], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 632821], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 217451], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 906251], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 980479], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 811235], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 798912], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 919407], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 20492], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 900587], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 538577], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 117967]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 360356], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 106938]]</t>
         </is>
       </c>
     </row>
@@ -9316,27 +9316,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 531948], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 239143], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 446603], ['NCS', 0.22, 504, 480, 'Optimierungspotential', 950125], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 113023], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 891372], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 794349], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 853908], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 20758]]</t>
+          <t>[['NCS', 0.22, 504, 540, 'Optimierungspotential', 258822], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 418152], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 206604]]</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 634939]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 268172], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 293247], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 189360], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 974238], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 175535], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 385869], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 391068], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 222938], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 979198], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 156859], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 593570], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 209241]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 944135], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 372573]]</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 953333], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 168589], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 960820], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 427057], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 319209], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 486515], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 751527], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 259586], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 790677], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 572135]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 423797], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 559893], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 29590]]</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 305752], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 714093], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 584120], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 155270], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 143476], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 111594], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 838841], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 598513], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 200326], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 28685]]</t>
+          <t>[['NCS', 0.1, 756, 540, 'Optimierungspotential', 756224], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 314343], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 540249]]</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 544798], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 151509], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 251362], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 387343], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 413883], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 470444], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 589772], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 213631], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 46962], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 328742]]</t>
+          <t>[['NCS', 0.19, 756, 540, 'Optimierungspotential', 422157], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 126577], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 834984]]</t>
         </is>
       </c>
     </row>
@@ -9356,37 +9356,37 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 279448], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 43102], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 704354], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 13181], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 916147], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 352546], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 460545]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 174607], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 805818]]</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 666270], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 323416], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 440764]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 504, 480, 'Optimierungspotential', 498237], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 543175], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 493192], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 767208], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 193681], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 112529], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 990747], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 927948], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 982235], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 902116], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 560951]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 459468], ['NCS', 0.21, 252, 540, 'Optimierungspotential', 642016], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 103879], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 126079]]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 897547], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 566388], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 87720], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 953152], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 787808], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 671070], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 14609], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 608779], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 362705]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 5337], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 240350]]</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 718184], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 258770], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 272660], ['NCS', 0.25, 504, 480, 'Optimierungspotential', 898220], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 493370], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 225606], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 806137], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 194684], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 633209], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 915177]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 647052], ['NCS', 0.27, 252, 540, 'Optimierungspotential', 77228], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 593374], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 939046]]</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 449198], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 721098]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 589129], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 671575], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 666751], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 240231], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 932416], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 250324], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 792860], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 419276], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 442352], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 681398], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 594956]]</t>
+          <t>[['NCS', 0.1, 504, 540, 'Optimierungspotential', 349196], ['NCS', 0.24, 252, 540, 'Optimierungspotential', 622063], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 891865]]</t>
         </is>
       </c>
     </row>
@@ -9396,37 +9396,37 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 153778], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 327098], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 518939], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 471030], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 863317], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 21229], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 926755], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 719844], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 451813]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 942380], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 227370]]</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 254085]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 750057]]</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 314385], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 273048], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 340219], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 845755], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 886080], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 411650], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 641939], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 283591], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 862050], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 135153], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 838455], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 852141]]</t>
+          <t>[['NCS', 0.29, 504, 540, 'Optimierungspotential', 383774], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 35399], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 144631]]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 375070], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 575970], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 875087], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 471344], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 983919], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 208969], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 940958], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 482353], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 270031]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 740502], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 380618], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 386737]]</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 756, 480, 'Optimierungspotential', 305950], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 191982], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 258508], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 417233], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 195414], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 29917], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 272674], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 767970], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 592224]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 538575], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 997527], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 491211]]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 216957]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 956285]]</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 551314], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 99088], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 131681], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 243512], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 626656], ['NCS', 0.25, 504, 480, 'Optimierungspotential', 745113], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 241974], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 713528], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 736877], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 66670], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 61109]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 888617], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 362877], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 872577]]</t>
         </is>
       </c>
     </row>
@@ -9436,37 +9436,37 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 818379], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 720015], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 270225], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 166345], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 719820], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 786097], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 200990], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 398593]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 338666], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 634366], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 431320]]</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 970269], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 511794]]</t>
+          <t>[['HPC', 0.29, 252, 45, 'Optimierungspotential', 476618]]</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 259427], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 857755], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 25884], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 841442], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 378249], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 862272], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 974327], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 508118], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 237672], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 328884], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 400917], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 603228]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 171379], ['NCS', 0.25, 252, 540, 'Optimierungspotential', 384174], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 461183], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 885275]]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 390356], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 179325], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 137518], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 48634], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 196610], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 123834], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 771854], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 329611], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 382320]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 292862], ['NCS', 0.23, 504, 540, 'Optimierungspotential', 676075], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 425611]]</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 994004], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 773332], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 42267], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 472492], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 546042], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 477773], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 587276], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 629589], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 293729], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 661690]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 258356], ['NCS', 0.17, 252, 540, 'Optimierungspotential', 509912], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 943280], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 481035]]</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 912151], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 839725]]</t>
+          <t>[['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 248027]]</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 345732], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 916953], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 205588], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 751211], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 93678], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 731402], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 103727], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 707759], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 24796], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 133484], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 367465], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 98060]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 542447], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 96432]]</t>
         </is>
       </c>
     </row>
@@ -9476,37 +9476,37 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 674419], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 902256], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 229800], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 763028], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 922218], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 794025], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 748752], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 497642]]</t>
+          <t>[['NCS', 0.07, 756, 540, 'Optimierungspotential', 267340], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 76653]]</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 389026], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 864267], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 414821]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 430828], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 984044], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 671638], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 810477], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 341696], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 205806], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 29886], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 804837], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 651886], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 205763], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 179312], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 82021]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 347452], ['NCS', 0.3, 252, 540, 'Optimierungspotential', 444124], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 420680]]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 139264], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 139752], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 976396], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 363987], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 296072], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 941310], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 997777], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 883555], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 481203], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 448762]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 754368], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 918565], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 360462]]</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 414740], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 674856], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 187940], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 243476], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 577102], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 781873], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 566964], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 679570], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 727265], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 236302]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 51214], ['NCS', 0.16, 252, 540, 'Optimierungspotential', 541175], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 640496], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 888970]]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 507628]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 301299], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 920123], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 907587], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 975774], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 746668], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 795943], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 959584], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 723010], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 982076], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 315190], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 500135]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 50329], ['NCS', 0.27, 252, 540, 'Optimierungspotential', 430249], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 812261], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 688904]]</t>
         </is>
       </c>
     </row>
@@ -9516,37 +9516,37 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 837253], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 308038], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 773462], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 310745], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 431484], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 797949], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 576600], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 260322]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 232321], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 210413]]</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 790938]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 284251], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 626485], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 124702], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 993625], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 824886], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 751852], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 473934], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 51950], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 949834], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 934015], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 300434], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 63302]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 756015], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 696539], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 695001]]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 792163], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 117914], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 158109], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 695854], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 452095], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 294202], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 711447], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 24201], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 782184]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 56536], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 464125]]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 504, 480, 'Optimierungspotential', 782969], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 827280], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 430924], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 562096], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 159016], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 398366], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 320999], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 279066], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 756800]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 554706], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 80165], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 931064]]</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 237017], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 450892]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 711701], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 210823], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 581277], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 339087], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 124754], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 884098], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 975327], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 41259], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 957661], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 326351], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 90750]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 570891], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 48901]]</t>
         </is>
       </c>
     </row>
@@ -9556,37 +9556,37 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 859481], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 920359], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 53694], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 407911], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 563722], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 350299], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 626887]]</t>
+          <t>[['NCS', 0.13, 756, 540, 'Optimierungspotential', 457876], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 298856]]</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 109838], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 491253], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 293262]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 497464], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 71682], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 854055], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 970549], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 461515], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 360865], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 572629], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 747624], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 222310], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 440542], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 96269]]</t>
+          <t>[['NCS', 0.26, 756, 540, 'Optimierungspotential', 310710], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 837458], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 203824]]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 744220], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 603458], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 294004], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 503155], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 213489], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 528707], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 10209], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 46487], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 683588]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 470070], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 973344], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 611968]]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 614567], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 323139], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 623858], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 997544], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 817149], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 862322], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 32315], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 992905], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 842535], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 863676]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 347131], ['NCS', 0.08, 756, 540, 'Optimierungspotential', 102862], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 811573]]</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 109250]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 467678], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 648613]]</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 516131], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 746220], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 628874], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 393059], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 380319], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 603823], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 352343], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 966551], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 385504], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 566116]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 31659], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 104435], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 282825]]</t>
         </is>
       </c>
     </row>
@@ -9596,37 +9596,37 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 72044], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 246247], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 692296], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 529723], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 717758], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 982560], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 384842], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 808539], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 543607]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 42180], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 821815], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 513647]]</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 121303], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 97470]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 259964]]</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 838675], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 965509], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 504762], ['NCS', 0.25, 504, 480, 'Optimierungspotential', 92595], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 347624], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 491257], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 256635], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 595208], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 560775], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 56404], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 414532], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 849336]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 411064], ['NCS', 0.22, 252, 540, 'Optimierungspotential', 944512], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 651614], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 433172]]</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 821907], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 487098], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 368636], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 365195], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 445454], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 674238], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 8138], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 224763]]</t>
+          <t>[['NCS', 0.06, 504, 540, 'Optimierungspotential', 105945], ['NCS', 0.23, 252, 540, 'Optimierungspotential', 932704], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 982668]]</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 648780], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 264033], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 654160], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 351677], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 457679], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 480590], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 139284], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 335983], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 316119], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 630297], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 614888]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 457125], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 959641], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 991280]]</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 421791]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 675325], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 427272], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 697841], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 317089], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 999850], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 145446], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 657126], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 888765], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 826575], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 389127], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 946609], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 685221]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 926239], ['NCS', 0.13, 504, 540, 'Optimierungspotential', 327420], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 350373], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 724912]]</t>
         </is>
       </c>
     </row>
@@ -9636,37 +9636,37 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 660593], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 156555], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 763796], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 990680], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 92391], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 667410], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 211126]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 746460], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 896936]]</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 434887]]</t>
+          <t>[['HPC', 0.1, 252, 45, 'Optimierungspotential', 735033]]</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 890827], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 85052], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 736538], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 964991], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 957910], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 900422], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 473532], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 304323], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 775656], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 972846], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 195895]]</t>
+          <t>[['NCS', 0.24, 504, 540, 'Optimierungspotential', 928243], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 624249]]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 513534], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 877994], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 792157], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 520182], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 852166], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 991302], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 982252], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 398804], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 8708]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 913146], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 867365]]</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 7636], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 389742], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 975789], ['NCS', 0.22, 504, 480, 'Optimierungspotential', 865641], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 279765], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 575029], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 723553], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 29387], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 816346]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 242126], ['NCS', 0.14, 252, 540, 'Optimierungspotential', 965246], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 381011], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 741866]]</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 570846], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 839170]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 504, 480, 'Optimierungspotential', 909406], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 978313], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 32083], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 30778], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 869911], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 161361], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 900472], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 944857], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 989541], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 757672]]</t>
+          <t>[['NCS', 0.13, 504, 540, 'Optimierungspotential', 674561], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 164422]]</t>
         </is>
       </c>
     </row>
@@ -9676,37 +9676,37 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 165100], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 373686], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 836478], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 735505], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 279559], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 611407], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 473282], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 805329]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 864500], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 480409]]</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 185643], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 490452], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 727507]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 762536], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 705933], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 818334], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 312262], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 947525], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 786709], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 398599], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 806553], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 884108], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 961947], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 663897]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 802591], ['NCS', 0.24, 252, 540, 'Optimierungspotential', 994620], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 421138], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 847852]]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 968427], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 803345], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 305963], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 153424], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 929393], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 1231], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 675601], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 160175], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 57440]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 461224], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 971837], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 452730]]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 221852], ['NCS', 0.29, 504, 480, 'Optimierungspotential', 173398], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 427749], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 945532], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 591295], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 667768], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 225390], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 547170], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 507088]]</t>
+          <t>[['NCS', 0.29, 504, 540, 'Optimierungspotential', 780753], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 398426], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 787363]]</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 978467]]</t>
+          <t>[['NCS', 0.28, 504, 540, 'Optimierungspotential', 33771], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 993747]]</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 438500], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 16255], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 129381], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 188781], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 241566], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 437205], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 352193], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 303184], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 738196], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 969474]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 512424], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 451239], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 891073]]</t>
         </is>
       </c>
     </row>
@@ -9716,37 +9716,37 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 994214], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 551049], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 657377], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 332251], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 777653], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 688339], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 876706]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 475472], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 310582]]</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 443852], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 623646]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 328939], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 148179], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 160172], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 369472], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 163554], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 577076], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 452152], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 284945], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 137225], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 489784], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 19492]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 148928], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 107951], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 933681]]</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 732036], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 336403], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 902873], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 45980], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 639407], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 803304], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 468151], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 839797], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 468855]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 284425], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 579147]]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 666365], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 837953], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 58212], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 908361], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 97226], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 412407], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 957870], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 890727], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 728913], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 298911]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 79975], ['NCS', 0.14, 756, 540, 'Optimierungspotential', 799486], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 126305], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 309727]]</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 518629], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 945087]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 414022], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 309244], ['NCS', 0.29, 504, 480, 'Optimierungspotential', 237234], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 110110], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 934918], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 163056], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 910003], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 610932], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 585356], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 284178], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 419367]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 537073], ['NCS', 0.1, 252, 540, 'Optimierungspotential', 810499], ['HPC', 0.22, 504, 55, 'kein Optimierungspotential', 307008]]</t>
         </is>
       </c>
     </row>
@@ -9756,37 +9756,37 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 756, 480, 'Optimierungspotential', 635449], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 280182], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 490585], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 113480], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 752471], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 295359], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 261411]]</t>
+          <t>[['NCS', 0.18, 756, 540, 'Optimierungspotential', 581561], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 351640]]</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 785069]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 116034], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 117161], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 249861], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 681996], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 952073], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 20909], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 886679], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 469887], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 289901], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 660434]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 324132], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 224481]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 452344], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 184909], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 653354], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 891788], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 977952], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 346461], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 610099], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 308595]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 188979], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 692993], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 498600]]</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 284870], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 823188], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 502216], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 509176], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 614675], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 462500], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 610602], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 122180], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 659681]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 800423], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 207570]]</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 280033]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 559250], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 871124], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 538467], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 423772], ['NCS', 0.22, 504, 480, 'Optimierungspotential', 175935], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 377509], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 155559], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 26763], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 634820]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 455736], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 439066], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 601141]]</t>
         </is>
       </c>
     </row>
@@ -9796,37 +9796,37 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 434331], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 23661], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 960159], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 338870], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 666613], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 394804], ['HPC', 0.3, 504, 50, 'kein Optimierungspotential', 228779], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 512214]]</t>
+          <t>[['NCS', 0.22, 504, 540, 'Optimierungspotential', 805539], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 835220], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 442576]]</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 928680], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 244885], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 914085]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 554997], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 669492]]</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 752076], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 210304], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 664621], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 108338], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 446962], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 58367], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 992002], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 177148], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 718437], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 520196], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 853485]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 496857], ['NCS', 0.28, 252, 540, 'Optimierungspotential', 745817], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 36946], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 415748]]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 976331], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 767343], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 253609], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 559031], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 941034], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 672572], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 177546], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 307192], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 275398]]</t>
+          <t>[['NCS', 0.06, 756, 540, 'Optimierungspotential', 385592], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 151582]]</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 239415], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 683509], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 978179], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 38635], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 199572], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 762590], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 439677], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 594993], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 852754]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 285602], ['NCS', 0.21, 756, 540, 'Optimierungspotential', 843712], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 15447], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 636428]]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 825159], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 317502]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 876415]]</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 951608], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 859327], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 732348], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 141935], ['NCS', 0.05, 504, 480, 'Optimierungspotential', 871414], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 643571], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 525512], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 467587], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 663011], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 467780]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 379291], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 700895]]</t>
         </is>
       </c>
     </row>
@@ -9836,37 +9836,37 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 642033], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 833025], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 678577], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 843817], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 667370], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 516966]]</t>
+          <t>[['NCS', 0.15, 504, 540, 'Optimierungspotential', 587827], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 830683]]</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 549488], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 55061]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 304585], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 848768], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 560097], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 540782], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 304406], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 317759], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 559273], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 991909], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 507971], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 190114]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 599103], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 12186]]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 922713], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 904624], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 334963], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 601551], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 77792], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 427868], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 25486]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 954829], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 985177]]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 998303], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 937956], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 633093], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 956647], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 81376], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 121685], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 23053], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 984645], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 434101]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 400778], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 236750], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 211405]]</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 594681]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 210571]]</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 626751], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 536784], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 692623], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 681183], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 447509], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 27793], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 954994], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 137665], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 796008]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 320421], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 310006], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 152226]]</t>
         </is>
       </c>
     </row>
@@ -9876,37 +9876,37 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 379271], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 33763], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 182444], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 525852], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 928862], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 820913], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 853112], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 952132]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 395034], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 193747]]</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 442108]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 611715], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 279894], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 492047], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 981349], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 240647], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 205889], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 68309], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 168716], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 508146], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 37542], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 518142]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 144384], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 865994], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 796743]]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 568941], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 300937], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 307790], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 608763], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 691366], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 457540], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 772083], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 984127], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 879481]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 433964], ['NCS', 0.13, 252, 540, 'Optimierungspotential', 826393], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 475430], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 392217]]</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 326352], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 996659], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 128945], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 372841], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 940438], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 468878], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 358461], ['MCS', 0.25, 756, 45, 'Optimierungspotential', 906083], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 864374]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 721457], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 367697], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 584236]]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 273782], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 820763]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 651854], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 287873], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 346919], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 182744], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 487526], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 199375], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 775952], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 285930], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 802712], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 121688], ['NCS', 0.27, 252, 60, 'kein Optimierungspotential', 234760]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 298981], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 396530]]</t>
         </is>
       </c>
     </row>
@@ -9916,37 +9916,37 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 796901], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 65957], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 894972], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 513746], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 542608], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 325565]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 187685], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 333311]]</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 756, 480, 'Optimierungspotential', 726948], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 694335]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 554820], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 943149], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 115226], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 470364], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 390002], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 748088], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 375262], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 72557], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 813496]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 346486], ['NCS', 0.16, 504, 540, 'Optimierungspotential', 131367], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 601886], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 483405]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 842664], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 397457], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 405267], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 462196], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 370747], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 659420], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 915360], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 810328]]</t>
+          <t>[['NCS', 0.09, 504, 540, 'Optimierungspotential', 902687], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 317482]]</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 127399], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 275603], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 96550], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 190323], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 509738], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 734846], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 97319], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 803615], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 193852]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 292430], ['NCS', 0.29, 252, 540, 'Optimierungspotential', 400677], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 289642]]</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 433365]]</t>
+          <t>[['HPC', 0.07, 252, 45, 'Optimierungspotential', 440508]]</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 552115], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 808984], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 804559], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 977790], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 34376], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 714075], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 323161], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 259830], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 275734]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 504054], ['NCS', 0.08, 252, 540, 'Optimierungspotential', 282996], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 170737], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 82549]]</t>
         </is>
       </c>
     </row>
@@ -9956,37 +9956,37 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 306408], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 67160], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 964917], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 711429], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 81630], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 913489], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 387505]]</t>
+          <t>[['NCS', 0.13, 756, 540, 'Optimierungspotential', 472689], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 496134]]</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 306636], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 844330], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 504405]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 533996]]</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 312660], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 288628], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 80485], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 83481], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 92624], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 630956], ['NCS', 0.3, 504, 480, 'Optimierungspotential', 983012], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 679184], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 592292], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 140486]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 91835], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 862604]]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 160319], ['NCS', 0.28, 504, 480, 'Optimierungspotential', 739228], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 683286], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 168682], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 374359], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 292023], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 937285]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 372307], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 562099]]</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 343731], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 676415], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 423375], ['NCS', 0.29, 756, 480, 'Optimierungspotential', 389432], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 652506], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 114633], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 91472], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 478803]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 561471], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 332765], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 382846]]</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 504, 480, 'Optimierungspotential', 592697], ['MCS', 0.28, 756, 45, 'Optimierungspotential', 899203]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 454203], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 430429], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 796250], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 688435], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 740084], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 438058], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 482529], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 839196], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 13523]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 759444], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 323299]]</t>
         </is>
       </c>
     </row>
@@ -9996,37 +9996,37 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 546307], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 124115], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 110631], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 507459], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 977765], ['MCS', 0.26, 756, 45, 'Optimierungspotential', 8018]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 106334], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 869793]]</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 811048]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 397087]]</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 695567], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 439263], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 673335], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 757303], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 134738], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 785921], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 854131], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 718879], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 730812], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 166565]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 163147], ['HPC', 0.3, 252, 45, 'Optimierungspotential', 173518], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 862084]]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 546970], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 22832], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 455755], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 962829], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 336388], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 140754], ['HPC', 0.26, 504, 55, 'kein Optimierungspotential', 887429], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 279873]]</t>
+          <t>[['NCS', 0.15, 756, 540, 'Optimierungspotential', 691842], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 221552], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 111036]]</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 101523], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 658296], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 368116], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 841340], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 766844], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 520891], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 91595], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 675196], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 368137]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 337439], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 692279], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 128171]]</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 113792]]</t>
+          <t>[['NCS', 0.25, 504, 540, 'Optimierungspotential', 45668]]</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 931644], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 892638], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 469796], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 836183], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 318472], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 827125], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 959503], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 591154], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 394399]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 839043], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 364230], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 385170]]</t>
         </is>
       </c>
     </row>
@@ -10036,37 +10036,37 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 162363], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 235689], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 382023], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 809558], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 153068], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 500357]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 383049], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 85921]]</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 808938], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 151792]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 881026], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 57803], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 215430], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 636490], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 59514], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 674650], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 35427], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 410947], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 987428]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 176358], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 973060]]</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 670776], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 845312], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 76081], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 268328], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 744927], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 303570], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 630163]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 606167], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 395565]]</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 547687], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 947150], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 283607], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 931972], ['NCS', 0.12, 504, 480, 'Optimierungspotential', 847478], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 47603], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 596844]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 989856], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 808346]]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 347740], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 583284]]</t>
+          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 294436]]</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 504, 480, 'Optimierungspotential', 295958], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 863471], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 539555], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 383878], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 522030], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 749016], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 572594], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 422999]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 893323], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 335725]]</t>
         </is>
       </c>
     </row>
@@ -10076,37 +10076,37 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 409566], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 554349], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 214202], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 23755], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 796071], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 180802]]</t>
+          <t>[['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 142027]]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 252, 480, 'Optimierungspotential', 578657]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 740702], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 334126], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 783773], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 320048], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 413595], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 576789], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 179581], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 472525], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 534098]]</t>
+          <t>[['NCS', 0.16, 756, 540, 'Optimierungspotential', 366449], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 955408], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 830181]]</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 839103], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 302131], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 499394], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 226518], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 291102], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 831967], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 789410], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 410246]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 833528], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 501521]]</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 463555], ['NCS', 0.27, 504, 480, 'Optimierungspotential', 639633], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 358773], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 449772], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 358022], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 827089], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 823182], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 160948], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 869530]]</t>
+          <t>[['NCS', 0.08, 504, 540, 'Optimierungspotential', 16076], ['NCS', 0.29, 504, 540, 'Optimierungspotential', 425685], ['HPC', 0.14, 504, 65, 'kein Optimierungspotential', 715161], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 120331]]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 349828]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 757370], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 46922], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 903793], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 666389], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 414614], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 371477], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 76082], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 561095], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 474217]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 214818], ['HPC', 0.27, 252, 45, 'Optimierungspotential', 14347]]</t>
         </is>
       </c>
     </row>
@@ -10116,37 +10116,37 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 542802], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 821204], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 876362], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 238566], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 425931], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 288055]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 772399], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 929555]]</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 504, 480, 'Optimierungspotential', 127874], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 29516], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 51904]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 759845]]</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 94539], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 59062], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 569414], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 938816], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 921049], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 860703], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 409190], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 441006]]</t>
+          <t>[['NCS', 0.29, 504, 540, 'Optimierungspotential', 524636], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 970466]]</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 504, 480, 'Optimierungspotential', 957925], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 558517], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 118156], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 146098], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 933028], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 960618], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 292108]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 696595], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 184712]]</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 388494], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 122831], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 532705], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 825783], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 248800], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 849991], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 297855]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 752234], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 202762]]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 513530], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 823965]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 419581], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 433860], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 855045], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 698910], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 645038], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 224147], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 97149], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 179029]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 362144], ['MCS', 0.07, 504, 45, 'Optimierungspotential', 61976]]</t>
         </is>
       </c>
     </row>
@@ -10156,37 +10156,37 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 302536], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 594839], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 793201], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 10734], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 30460], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 855218]]</t>
+          <t>[['NCS', 0.05, 504, 540, 'Optimierungspotential', 377744], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 418923]]</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 772284]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 188419], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 783815], ['NCS', 0.08, 504, 480, 'Optimierungspotential', 286815], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 219291], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 237378], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 930432], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 188335], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 267699]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 665530], ['HPC', 0.29, 252, 45, 'Optimierungspotential', 458526]]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 762704], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 563016], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 177904], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 65880], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 356330], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 661793]]</t>
+          <t>[['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 974481]]</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 40072], ['NCS', 0.11, 504, 480, 'Optimierungspotential', 447024], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 910801], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 870159], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 327984], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 579909], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 849788], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 437907]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 105241], ['MCS', 0.07, 756, 45, 'Optimierungspotential', 498564]]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 993149]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 471688]]</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 779970], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 675394], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 736860], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 844684], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 662967], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 940372], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 207122], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 601459]]</t>
+          <t>[['NCS', 0.25, 756, 540, 'Optimierungspotential', 371774], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 577730], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 770507]]</t>
         </is>
       </c>
     </row>
@@ -10196,37 +10196,37 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 109096], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 836418], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 339805], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 999129], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 957913]]</t>
+          <t>[['NCS', 0.27, 252, 540, 'Optimierungspotential', 173076], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 221104]]</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 240066], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 515116]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 371387]]</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 756, 480, 'Optimierungspotential', 642265], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 765237], ['NCS', 0.3, 252, 480, 'Optimierungspotential', 131541], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 378463], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 778986], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 293392], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 652353], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 476458], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 965887]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 582595], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 867222]]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 504, 480, 'Optimierungspotential', 141952], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 633373], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 156088], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 982117], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 505998], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 249437], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 498982]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 206920], ['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 121565]]</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 921289], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 815161], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 592254], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 137713], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 523200], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 304534]]</t>
+          <t>[['NCS', 0.22, 756, 540, 'Optimierungspotential', 38881], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 219751], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 165999]]</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 706130], ['HPC', 0.17, 252, 45, 'Optimierungspotential', 247335]]</t>
+          <t>[['HPC', 0.2, 504, 60, 'kein Optimierungspotential', 339472]]</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 295696], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 88147], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 269095], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 243519], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 420564], ['HPC', 0.24, 504, 55, 'kein Optimierungspotential', 807709], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 445897]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 14741], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 483360]]</t>
         </is>
       </c>
     </row>
@@ -10236,37 +10236,37 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 504, 480, 'Optimierungspotential', 544358], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 634025], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 772693], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 196819], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 997167]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 294225]]</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 507665], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 514903]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 722689], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 860015], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 192600], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 767351], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 319971], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 807163], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 53035]]</t>
+          <t>[['NCS', 0.25, 504, 540, 'Optimierungspotential', 519663], ['HPC', 0.28, 504, 50, 'kein Optimierungspotential', 344311], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 341194]]</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 792925], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 384164], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 203548], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 430855], ['MCS', 0.05, 756, 45, 'Optimierungspotential', 246899], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 88724]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 764800], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 77513]]</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 320610], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 352426], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 909813], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 724133], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 212556], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 552148], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 304795]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 857498], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 899648]]</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 974839]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 777899], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 230378], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 675330], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 875069], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 441875], ['HPC', 0.18, 252, 45, 'Optimierungspotential', 92423], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 369133], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 254593]]</t>
+          <t>[['NCS', 0.15, 756, 540, 'Optimierungspotential', 389109], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 246201]]</t>
         </is>
       </c>
     </row>
@@ -10276,37 +10276,37 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 451794], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 843880], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 179782], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 622636], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 832476]]</t>
+          <t>[['NCS', 0.06, 252, 540, 'Optimierungspotential', 772539], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 682605]]</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 141564]]</t>
+          <t>[['HPC', 0.19, 252, 45, 'Optimierungspotential', 763976]]</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 504, 480, 'Optimierungspotential', 498119], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 659010], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 11142], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 302006], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 136417], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 886530], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 978608]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 178406], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 656249]]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 641466], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 657534], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 713539], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 902552], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 652357], ['HPC', 0.12, 252, 45, 'Optimierungspotential', 129246]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 901705], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 388671]]</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 664423], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 102340], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 100700], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 109532], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 914604], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 507045]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 314554], ['MCS', 0.29, 756, 45, 'Optimierungspotential', 661986]]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 504751], ['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 778706]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 937638], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 335162], ['NCS', 0.15, 252, 480, 'Optimierungspotential', 648858], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 595607], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 989504], ['HPC', 0.14, 252, 45, 'Optimierungspotential', 270721], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 6096]]</t>
+          <t>[['NCS', 0.13, 504, 540, 'Optimierungspotential', 253574], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 311626]]</t>
         </is>
       </c>
     </row>
@@ -10316,37 +10316,37 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 198112], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 966704], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 333374], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 370846], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 984036], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 968833]]</t>
+          <t>[['NCS', 0.15, 504, 540, 'Optimierungspotential', 163388], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 891766]]</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 52561], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 141239]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 401858], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 547851], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 953243], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 334063], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 767102], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 513657], ['MCS', 0.18, 756, 45, 'Optimierungspotential', 848058]]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 484852], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 434462]]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 618469], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 935147], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 526987], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 206750], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 765991], ['HPC', 0.21, 252, 45, 'Optimierungspotential', 696973]]</t>
+          <t>[['NCS', 0.19, 252, 540, 'Optimierungspotential', 650927], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 547783]]</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 518789], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 627033], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 106156], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 962502], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 716899], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 854891]]</t>
+          <t>[['NCS', 0.16, 252, 540, 'Optimierungspotential', 157072], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 955253]]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['MCS', 0.08, 756, 45, 'Optimierungspotential', 44069]]</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 504, 480, 'Optimierungspotential', 215418], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 413899], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 280121], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 698490], ['MCS', 0.06, 756, 45, 'Optimierungspotential', 140651], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 333019]]</t>
+          <t>[['MCS', 0.06, 504, 45, 'Optimierungspotential', 172032]]</t>
         </is>
       </c>
     </row>
@@ -10356,37 +10356,37 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 504, 480, 'Optimierungspotential', 772200], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 455899], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 808677]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 504, 480, 'Optimierungspotential', 756640]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 479498], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 224847], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 89814], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 914837], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 196388], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 82795]]</t>
+          <t>[['NCS', 0.25, 504, 540, 'Optimierungspotential', 302601]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 489451], ['NCS', 0.15, 504, 480, 'Optimierungspotential', 977012], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 847620], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 758124], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 631382]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 18322], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 163282]]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 111139], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 313229], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 359099], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 918465], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 510309], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 121835]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 143401], ['HPC', 0.19, 252, 45, 'Optimierungspotential', 345826]]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 918519]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 672130]]</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 504, 480, 'Optimierungspotential', 139428], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 173272], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 630192], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 788611], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 250230], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 346977]]</t>
+          <t>[['NCS', 0.22, 756, 540, 'Optimierungspotential', 65423]]</t>
         </is>
       </c>
     </row>
@@ -10396,37 +10396,37 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 495931], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 860466], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 886925], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 815018]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 179467]]</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 35031]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 876817], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 666274], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 812259], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 656436], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 285371], ['NCS', 0.26, 252, 60, 'kein Optimierungspotential', 982402]]</t>
+          <t>[['NCS', 0.18, 252, 540, 'Optimierungspotential', 897177], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 46680]]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 586212], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 15542], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 555806], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 524665]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 797346], ['NCS', 0.07, 756, 480, 'Optimierungspotential', 618638], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 491453], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 695653]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 744403]]</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 855535], ['MCS', 0.06, 504, 45, 'Optimierungspotential', 844512]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 44116], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 713293], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 324008], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 727999], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 992087]]</t>
+          <t>[['NCS', 0.25, 252, 540, 'Optimierungspotential', 610135], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 368079]]</t>
         </is>
       </c>
     </row>
@@ -10436,37 +10436,37 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 389019], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 497640], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 138085], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 774371]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 729177], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 969817]]</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 710807]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 581367]]</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 538615], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 764986], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 630049], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 307878], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 815827]]</t>
+          <t>[['NCS', 0.05, 252, 540, 'Optimierungspotential', 137115], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 474487]]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 319970], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 545170], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 652538], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 172501], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 832665]]</t>
+          <t>[['NCS', 0.15, 504, 540, 'Optimierungspotential', 570204], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 322114]]</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 123628], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 152340], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 442236], ['NCS', 0.07, 504, 480, 'Optimierungspotential', 479847], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 808718]]</t>
+          <t>[['NCS', 0.3, 252, 540, 'Optimierungspotential', 199649], ['HPC', 0.26, 252, 45, 'Optimierungspotential', 276677]]</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 703424]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 803189], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 658032], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 548350], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 600913], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 42916], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 712513]]</t>
+          <t>[['NCS', 0.11, 504, 540, 'Optimierungspotential', 333046]]</t>
         </is>
       </c>
     </row>
@@ -10476,37 +10476,37 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 59962], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 323823], ['NCS', 0.23, 252, 480, 'Optimierungspotential', 379120], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 918565]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 456436], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 361317]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 87949], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 379210], ['NCS', 0.05, 756, 480, 'Optimierungspotential', 68909], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 965950], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 914660]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 489252]]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 264785], ['NCS', 0.05, 504, 480, 'Optimierungspotential', 53643], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 573992], ['NCS', 0.3, 252, 60, 'kein Optimierungspotential', 651760]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 451699]]</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 173707], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 317458], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 295726], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 378328], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 380065]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 428190]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 565494], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 796988], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 1839], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 927822], ['HPC', 0.06, 252, 45, 'Optimierungspotential', 57442]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 487657], ['MCS', 0.1, 504, 45, 'Optimierungspotential', 380951]]</t>
         </is>
       </c>
     </row>
@@ -10516,37 +10516,37 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 911061], ['NCS', 0.25, 756, 480, 'Optimierungspotential', 485700], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 248107]]</t>
+          <t>[['NCS', 0.09, 504, 540, 'Optimierungspotential', 500888], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 264109]]</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 771869]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 504, 480, 'Optimierungspotential', 296653], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 208630], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 102766], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 18320]]</t>
+          <t>[['HPC', 0.2, 252, 45, 'Optimierungspotential', 885431]]</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 721164], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 302185], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 826205], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 104262]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 689436]]</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 669791], ['NCS', 0.2, 504, 480, 'Optimierungspotential', 824808], ['NCS', 0.11, 252, 480, 'Optimierungspotential', 704681], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 184074]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 561185], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 921427]]</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 252, 480, 'Optimierungspotential', 79316]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 58474], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 437409], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 480917], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 943271]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -10556,37 +10556,37 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 283229], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 595609], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 750722]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 477429]]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 571656]]</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 498938], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 301666], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 268418], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 457947], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 224687]]</t>
+          <t>[['NCS', 0.26, 504, 540, 'Optimierungspotential', 506838]]</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 55641], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 22914], ['NCS', 0.06, 504, 480, 'Optimierungspotential', 951984], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 668232]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 896995]]</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 504, 480, 'Optimierungspotential', 15908], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 62866], ['NCS', 0.28, 756, 480, 'Optimierungspotential', 885118], ['HPC', 0.15, 252, 45, 'Optimierungspotential', 556245]]</t>
+          <t>[['NCS', 0.22, 504, 540, 'Optimierungspotential', 365459]]</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 920958], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 643794]]</t>
+          <t>[['NCS', 0.11, 504, 540, 'Optimierungspotential', 306792]]</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 393235], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 721462], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 480734], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 847327], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 438750]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 206381], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 136123]]</t>
         </is>
       </c>
     </row>
@@ -10596,37 +10596,37 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 756, 480, 'Optimierungspotential', 787615], ['NCS', 0.09, 504, 480, 'Optimierungspotential', 80660], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 624347]]</t>
+          <t>[['NCS', 0.06, 504, 540, 'Optimierungspotential', 138565]]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 252, 480, 'Optimierungspotential', 175284]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 584383], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 73976], ['NCS', 0.08, 252, 480, 'Optimierungspotential', 226140], ['NCS', 0.3, 504, 480, 'Optimierungspotential', 454041], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 232372]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 22978], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 934374]]</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 274390], ['NCS', 0.21, 756, 480, 'Optimierungspotential', 88798], ['NCS', 0.09, 756, 480, 'Optimierungspotential', 651376], ['HPC', 0.07, 252, 45, 'Optimierungspotential', 722578]]</t>
+          <t>[['MCS', 0.13, 756, 45, 'Optimierungspotential', 968992]]</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 679998], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 669353], ['NCS', 0.13, 504, 480, 'Optimierungspotential', 544456], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 101048]]</t>
+          <t>[['NCS', 0.18, 504, 540, 'Optimierungspotential', 176654], ['HPC', 0.22, 252, 45, 'Optimierungspotential', 373240]]</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 756, 480, 'Optimierungspotential', 343835]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 696752], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 707399], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 741264], ['HPC', 0.16, 252, 45, 'Optimierungspotential', 283172]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -10636,37 +10636,37 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 159380], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 916257], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 226687], ['NCS', 0.28, 252, 60, 'kein Optimierungspotential', 820104]]</t>
+          <t>[['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 601667]]</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 876296], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 807089]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 990686]]</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 735239], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 403923], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 580646], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 85593]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 86814], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 794172], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 514715], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 329093]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 86353]]</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 867944], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 269393], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 494734], ['MCS', 0.27, 756, 45, 'Optimierungspotential', 749767]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 74392]]</t>
+          <t>[['MCS', 0.23, 756, 45, 'Optimierungspotential', 744270]]</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 468521], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 314801], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 377709], ['MCS', 0.19, 756, 45, 'Optimierungspotential', 336823]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 998757], ['HPC', 0.25, 504, 55, 'kein Optimierungspotential', 23913]]</t>
         </is>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 252, 480, 'Optimierungspotential', 238639], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 943327], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 307005]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 92093]]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10686,27 +10686,27 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 504, 480, 'Optimierungspotential', 729670], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 232619], ['NCS', 0.27, 252, 480, 'Optimierungspotential', 450130], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 179334]]</t>
+          <t>[['NCS', 0.07, 504, 540, 'Optimierungspotential', 795347]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 769086], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 715560]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 877959], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 97194], ['NCS', 0.24, 756, 480, 'Optimierungspotential', 987258], ['MCS', 0.23, 756, 45, 'Optimierungspotential', 225742]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 27197], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 67130]]</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 35358]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 999115], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 755824], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 546885]]</t>
+          <t>[['NCS', 0.29, 756, 540, 'Optimierungspotential', 855373]]</t>
         </is>
       </c>
     </row>
@@ -10716,37 +10716,37 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 764702], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 497481]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 435444]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 687731], ['NCS', 0.28, 252, 480, 'Optimierungspotential', 644213], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 553810], ['HPC', 0.19, 504, 60, 'kein Optimierungspotential', 952525]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 760494]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 746293], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 557169], ['NCS', 0.23, 756, 480, 'Optimierungspotential', 444500], ['MCS', 0.2, 756, 45, 'Optimierungspotential', 434200]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 760221], ['HPC', 0.1, 252, 45, 'Optimierungspotential', 455581]]</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 989736], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 752027], ['MCS', 0.16, 756, 45, 'Optimierungspotential', 964366]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 99520], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 658355]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 958185], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 470234], ['NCS', 0.19, 252, 480, 'Optimierungspotential', 716995], ['HPC', 0.09, 252, 45, 'Optimierungspotential', 858286]]</t>
+          <t>[['MCS', 0.1, 756, 45, 'Optimierungspotential', 544037]]</t>
         </is>
       </c>
     </row>
@@ -10756,37 +10756,37 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 550005], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 760525], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 882014]]</t>
+          <t>[['HPC', 0.11, 252, 45, 'Optimierungspotential', 269740]]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 848152]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 927944], ['NCS', 0.13, 252, 480, 'Optimierungspotential', 578222], ['HPC', 0.2, 252, 45, 'Optimierungspotential', 422592]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 936368]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 252, 480, 'Optimierungspotential', 725115], ['NCS', 0.24, 252, 480, 'Optimierungspotential', 853230], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 917475]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 657729], ['NCS', 0.14, 252, 480, 'Optimierungspotential', 980632], ['NCS', 0.16, 756, 480, 'Optimierungspotential', 814144]]</t>
+          <t>[['NCS', 0.26, 252, 540, 'Optimierungspotential', 111971], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 682623]]</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 756, 480, 'Optimierungspotential', 772652]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 213054], ['NCS', 0.19, 756, 480, 'Optimierungspotential', 551266], ['NCS', 0.3, 756, 480, 'Optimierungspotential', 701748], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 89521]]</t>
+          <t>[['NCS', 0.11, 504, 540, 'Optimierungspotential', 903429]]</t>
         </is>
       </c>
     </row>
@@ -10796,37 +10796,37 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 172532], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 432446]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 37472]]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 607723]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 647582], ['NCS', 0.25, 252, 480, 'Optimierungspotential', 352787], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 694544], ['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 728911]]</t>
+          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 803856]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 525490], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 117566]]</t>
+          <t>[['NCS', 0.29, 252, 540, 'Optimierungspotential', 530423]]</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 756, 480, 'Optimierungspotential', 813286], ['NCS', 0.17, 252, 480, 'Optimierungspotential', 623416], ['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 411447]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 504, 480, 'Optimierungspotential', 639635]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 504, 480, 'Optimierungspotential', 293708], ['NCS', 0.16, 504, 480, 'Optimierungspotential', 712275], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 863138]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -10836,37 +10836,37 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 252, 480, 'Optimierungspotential', 742953], ['NCS', 0.17, 504, 480, 'Optimierungspotential', 856723], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 869502]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.17, 504, 480, 'Optimierungspotential', 671674]]</t>
+          <t>[['NCS', 0.19, 504, 540, 'Optimierungspotential', 860132], ['HPC', 0.17, 504, 60, 'kein Optimierungspotential', 508626]]</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 99396], ['NCS', 0.1, 252, 480, 'Optimierungspotential', 731935], ['NCS', 0.18, 252, 480, 'Optimierungspotential', 474937]]</t>
+          <t>[['NCS', 0.2, 252, 540, 'Optimierungspotential', 708093]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 555598], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 432089], ['MCS', 0.17, 756, 45, 'Optimierungspotential', 328504]]</t>
+          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 710484]]</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 701940], ['NCS', 0.07, 252, 480, 'Optimierungspotential', 152964]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 203342]]</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 784144], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 414279], ['MCS', 0.13, 756, 45, 'Optimierungspotential', 75778]]</t>
+          <t>[['NCS', 0.08, 504, 540, 'Optimierungspotential', 964929]]</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 789556], ['NCS', 0.1, 504, 480, 'Optimierungspotential', 939749]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -10876,37 +10876,37 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 189115], ['NCS', 0.2, 756, 480, 'Optimierungspotential', 879977]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 165554]]</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 384970]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 252, 480, 'Optimierungspotential', 420674], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 411288]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 157036], ['NCS', 0.12, 252, 480, 'Optimierungspotential', 623623]]</t>
+          <t>[['NCS', 0.24, 504, 540, 'Optimierungspotential', 353137]]</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 928493], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 689943], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 209152], ['MCS', 0.24, 756, 45, 'Optimierungspotential', 565605]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 349591]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 936152], ['NCS', 0.06, 756, 480, 'Optimierungspotential', 736885], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 50083]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 206925], ['HPC', 0.12, 504, 65, 'kein Optimierungspotential', 637003]]</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 756, 480, 'Optimierungspotential', 214568]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10926,27 +10926,27 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 304642], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 10871], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 942320]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 142869]]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 908331], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 869644]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 151413], ['NCS', 0.23, 504, 480, 'Optimierungspotential', 416784]]</t>
+          <t>[['NCS', 0.15, 252, 540, 'Optimierungspotential', 652507], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 552014]]</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 46733], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 320211]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 484518], ['NCS', 0.22, 756, 480, 'Optimierungspotential', 672531], ['MCS', 0.08, 504, 45, 'Optimierungspotential', 404975]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -10956,37 +10956,37 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 651958], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 88263]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 578171]]</t>
+          <t>[['NCS', 0.11, 252, 540, 'Optimierungspotential', 27053]]</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 180822], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 709654]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 389597], ['NCS', 0.2, 252, 480, 'Optimierungspotential', 321492], ['MCS', 0.11, 756, 45, 'Optimierungspotential', 249928]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 196570]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 566270], ['NCS', 0.29, 252, 60, 'kein Optimierungspotential', 921370]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 815358], ['NCS', 0.18, 756, 480, 'Optimierungspotential', 364185]]</t>
+          <t>[['NCS', 0.27, 504, 540, 'Optimierungspotential', 824511]]</t>
         </is>
       </c>
     </row>
@@ -10996,37 +10996,37 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 454231], ['NCS', 0.29, 252, 480, 'Optimierungspotential', 466981], ['HPC', 0.27, 504, 55, 'kein Optimierungspotential', 624237]]</t>
+          <t>[['NCS', 0.24, 252, 540, 'Optimierungspotential', 125557], ['MCS', 0.09, 504, 45, 'Optimierungspotential', 243969]]</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 728124]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 205279], ['NCS', 0.09, 252, 480, 'Optimierungspotential', 948287], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 19406]]</t>
+          <t>[['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 891916]]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 756, 480, 'Optimierungspotential', 651420], ['NCS', 0.11, 756, 480, 'Optimierungspotential', 43147]]</t>
+          <t>[['NCS', 0.22, 252, 540, 'Optimierungspotential', 811123]]</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 252, 480, 'Optimierungspotential', 952754], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 499357], ['HPC', 0.08, 252, 45, 'Optimierungspotential', 840087]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 861759]]</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 743791], ['NCS', 0.14, 756, 480, 'Optimierungspotential', 288700]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 252, 480, 'Optimierungspotential', 9975], ['MCS', 0.12, 756, 45, 'Optimierungspotential', 896089]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 614196]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11046,27 +11046,27 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 18784], ['NCS', 0.13, 756, 480, 'Optimierungspotential', 194406]]</t>
+          <t>[['NCS', 0.08, 252, 540, 'Optimierungspotential', 677418]]</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 90392]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 293889], ['NCS', 0.14, 504, 480, 'Optimierungspotential', 936615]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 787706], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 12570]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 756, 480, 'Optimierungspotential', 948437], ['NCS', 0.1, 756, 480, 'Optimierungspotential', 345521]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11076,37 +11076,37 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 504, 480, 'Optimierungspotential', 661523]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 814983]]</t>
+          <t>[['NCS', 0.07, 252, 540, 'Optimierungspotential', 85709], ['HPC', 0.28, 252, 45, 'Optimierungspotential', 11746]]</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 487717]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 449315], ['NCS', 0.26, 252, 480, 'Optimierungspotential', 215167], ['MCS', 0.09, 756, 45, 'Optimierungspotential', 681815]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 703330]]</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 727753], ['NCS', 0.12, 756, 480, 'Optimierungspotential', 269644]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 750695], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 510863], ['MCS', 0.3, 756, 45, 'Optimierungspotential', 362733]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 252, 480, 'Optimierungspotential', 197839], ['NCS', 0.06, 252, 480, 'Optimierungspotential', 993915]]</t>
+          <t>[['NCS', 0.12, 252, 540, 'Optimierungspotential', 862803]]</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 10846], ['MCS', 0.21, 756, 45, 'Optimierungspotential', 852932]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11126,27 +11126,27 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 252, 480, 'Optimierungspotential', 413094], ['NCS', 0.21, 504, 480, 'Optimierungspotential', 416585], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 471837]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 659995]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 799561]]</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 883692], ['MCS', 0.1, 756, 45, 'Optimierungspotential', 747674]]</t>
+          <t>[['NCS', 0.23, 504, 540, 'Optimierungspotential', 318959], ['HPC', 0.15, 504, 65, 'kein Optimierungspotential', 76111]]</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.3, 756, 480, 'Optimierungspotential', 240758], ['NCS', 0.26, 504, 480, 'Optimierungspotential', 229725]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 693162], ['HPC', 0.05, 252, 45, 'Optimierungspotential', 587913]]</t>
+          <t>[['MCS', 0.07, 504, 45, 'Optimierungspotential', 306836]]</t>
         </is>
       </c>
     </row>
@@ -11156,37 +11156,37 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 252, 480, 'Optimierungspotential', 895415], ['NCS', 0.27, 756, 480, 'Optimierungspotential', 931717]]</t>
+          <t>[['NCS', 0.28, 252, 540, 'Optimierungspotential', 233030]]</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 709125]]</t>
+          <t>[['NCS', 0.21, 252, 540, 'Optimierungspotential', 321428]]</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 725541]]</t>
+          <t>[['NCS', 0.23, 252, 540, 'Optimierungspotential', 808254]]</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 658905]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 470440]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 673771], ['NCS', 0.17, 756, 480, 'Optimierungspotential', 210750]]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 928002]]</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 756, 480, 'Optimierungspotential', 859795], ['NCS', 0.22, 252, 480, 'Optimierungspotential', 142264]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11196,37 +11196,37 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 756, 480, 'Optimierungspotential', 745131]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[['HPC', 0.16, 252, 45, 'Optimierungspotential', 226830]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 252, 480, 'Optimierungspotential', 924904], ['NCS', 0.21, 252, 480, 'Optimierungspotential', 116486]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 489776], ['NCS', 0.26, 756, 480, 'Optimierungspotential', 9136]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 504, 480, 'Optimierungspotential', 617448], ['NCS', 0.24, 504, 480, 'Optimierungspotential', 356210]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 205297], ['NCS', 0.29, 504, 480, 'Optimierungspotential', 565655], ['HPC', 0.23, 504, 55, 'kein Optimierungspotential', 232765]]</t>
+          <t>[['HPC', 0.12, 252, 45, 'Optimierungspotential', 381535]]</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 23167]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 841933]]</t>
         </is>
       </c>
     </row>
@@ -11236,37 +11236,37 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 111724]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 252, 480, 'Optimierungspotential', 595256]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 495068]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 876855], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 14087]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 369248], ['MCS', 0.15, 756, 45, 'Optimierungspotential', 568592]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 756, 480, 'Optimierungspotential', 771220], ['NCS', 0.18, 504, 480, 'Optimierungspotential', 554776]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 401756]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11276,37 +11276,37 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 252, 480, 'Optimierungspotential', 359146]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.07, 504, 540, 'Optimierungspotential', 937867], ['HPC', 0.25, 252, 45, 'Optimierungspotential', 981125]]</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.25, 504, 480, 'Optimierungspotential', 7130], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 271061]]</t>
+          <t>[['HPC', 0.16, 504, 65, 'kein Optimierungspotential', 846272]]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 656007]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 208810]]</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 756, 480, 'Optimierungspotential', 13448]]</t>
+          <t>[['NCS', 0.2, 504, 540, 'Optimierungspotential', 31666]]</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 252, 480, 'Optimierungspotential', 706596], ['NCS', 0.05, 252, 480, 'Optimierungspotential', 74765], ['MCS', 0.22, 756, 45, 'Optimierungspotential', 46431]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 126264], ['MCS', 0.08, 756, 45, 'Optimierungspotential', 776024]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 504, 480, 'Optimierungspotential', 867392], ['HPC', 0.13, 252, 45, 'Optimierungspotential', 553483]]</t>
+          <t>[['HPC', 0.14, 252, 45, 'Optimierungspotential', 282910]]</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11326,27 +11326,27 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 504, 480, 'Optimierungspotential', 965838]]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 667958]]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 756, 480, 'Optimierungspotential', 879569]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 252, 480, 'Optimierungspotential', 347211]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 362922], ['NCS', 0.15, 756, 480, 'Optimierungspotential', 305997]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 364128], ['NCS', 0.16, 252, 480, 'Optimierungspotential', 162926]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11361,32 +11361,32 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 214996]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 504, 480, 'Optimierungspotential', 80236]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 807708]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 446471], ['NCS', 0.08, 756, 480, 'Optimierungspotential', 654474]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 504, 480, 'Optimierungspotential', 612973]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 810023]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 70659]]</t>
         </is>
       </c>
     </row>
@@ -11396,37 +11396,37 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 835076]]</t>
+          <t>[['NCS', 0.1, 504, 540, 'Optimierungspotential', 784964]]</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.16, 504, 540, 'Optimierungspotential', 221977]]</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 504, 480, 'Optimierungspotential', 90430]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 676875]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 504, 480, 'Optimierungspotential', 696170]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 756, 480, 'Optimierungspotential', 179204], ['HPC', 0.11, 252, 45, 'Optimierungspotential', 338016]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>[['NCS', 0.2, 756, 480, 'Optimierungspotential', 324315]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[['NCS', 0.29, 756, 480, 'Optimierungspotential', 986387]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11446,27 +11446,27 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 392144]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>[['HPC', 0.09, 252, 45, 'Optimierungspotential', 944401]]</t>
+          <t>[['HPC', 0.22, 252, 45, 'Optimierungspotential', 518319]]</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 954316]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 86912], ['NCS', 0.19, 504, 480, 'Optimierungspotential', 305270]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 806032]]</t>
+          <t>[['HPC', 0.17, 252, 45, 'Optimierungspotential', 403393]]</t>
         </is>
       </c>
     </row>
@@ -11476,37 +11476,37 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 876442]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 973265]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.14, 252, 480, 'Optimierungspotential', 241821], ['HPC', 0.18, 504, 60, 'kein Optimierungspotential', 518609]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.15, 756, 480, 'Optimierungspotential', 131889]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 504, 480, 'Optimierungspotential', 445211]]</t>
+          <t>[['NCS', 0.15, 756, 540, 'Optimierungspotential', 839984], ['MCS', 0.05, 504, 45, 'Optimierungspotential', 952421]]</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 253795]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>[['HPC', 0.21, 504, 60, 'kein Optimierungspotential', 758785]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11526,27 +11526,27 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 9110]]</t>
+          <t>[['NCS', 0.09, 252, 540, 'Optimierungspotential', 10290]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 7767]]</t>
+          <t>[['NCS', 0.1, 252, 540, 'Optimierungspotential', 668911]]</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 859121]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 810600]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 339354]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11556,37 +11556,37 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 504, 480, 'Optimierungspotential', 201826]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.17, 252, 540, 'Optimierungspotential', 871057]]</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 756, 480, 'Optimierungspotential', 945113]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 756, 480, 'Optimierungspotential', 113734]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 252, 480, 'Optimierungspotential', 215732]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.05, 504, 480, 'Optimierungspotential', 184263]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 756, 480, 'Optimierungspotential', 707062]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11596,17 +11596,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[['HPC', 0.13, 504, 65, 'kein Optimierungspotential', 693304]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 307305]]</t>
+          <t>[['HPC', 0.24, 252, 45, 'Optimierungspotential', 449176]]</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[['NCS', 0.12, 252, 480, 'Optimierungspotential', 626238]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -11616,17 +11616,17 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 252, 480, 'Optimierungspotential', 261897]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[['MCS', 0.15, 756, 45, 'Optimierungspotential', 404421]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 481596]]</t>
+          <t>[['NCS', 0.14, 504, 540, 'Optimierungspotential', 749672]]</t>
         </is>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 252, 480, 'Optimierungspotential', 571134]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>[['NCS', 0.1, 756, 480, 'Optimierungspotential', 533783]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 529086]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[['NCS', 0.22, 252, 480, 'Optimierungspotential', 417218]]</t>
+          <t>[['NCS', 0.22, 504, 540, 'Optimierungspotential', 162633]]</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 777436]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>[['NCS', 0.27, 756, 480, 'Optimierungspotential', 603973], ['HPC', 0.29, 504, 50, 'kein Optimierungspotential', 856503]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>[['NCS', 0.11, 756, 480, 'Optimierungspotential', 396108]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11726,17 +11726,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 8724], ['MCS', 0.14, 756, 45, 'Optimierungspotential', 290420]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 756, 480, 'Optimierungspotential', 471562]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.12, 504, 540, 'Optimierungspotential', 725750]]</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11766,27 +11766,27 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['HPC', 0.26, 252, 45, 'Optimierungspotential', 797138]]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>[['MCS', 0.09, 756, 45, 'Optimierungspotential', 207735]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>[['NCS', 0.18, 504, 480, 'Optimierungspotential', 258561]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 252, 480, 'Optimierungspotential', 26535]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>[['NCS', 0.06, 504, 480, 'Optimierungspotential', 261371], ['HPC', 0.23, 252, 45, 'Optimierungspotential', 336384]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[['NCS', 0.08, 504, 480, 'Optimierungspotential', 39290]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11806,12 +11806,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 252, 480, 'Optimierungspotential', 94517]]</t>
+          <t>[['NCS', 0.14, 252, 540, 'Optimierungspotential', 800946]]</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>[['NCS', 0.09, 756, 480, 'Optimierungspotential', 710417]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>[['NCS', 0.24, 504, 480, 'Optimierungspotential', 140757]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[['NCS', 0.26, 504, 480, 'Optimierungspotential', 525523], ['HPC', 0.24, 252, 45, 'Optimierungspotential', 245636]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -11856,12 +11856,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>[['NCS', 0.23, 252, 480, 'Optimierungspotential', 673813]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 574254]]</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[['NCS', 0.16, 756, 480, 'Optimierungspotential', 654879]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11886,12 +11886,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>[['NCS', 0.13, 756, 480, 'Optimierungspotential', 390058]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>[['NCS', 0.19, 252, 480, 'Optimierungspotential', 578]]</t>
+          <t>[['NCS', 0.13, 252, 540, 'Optimierungspotential', 318348]]</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>[['NCS', 0.07, 504, 480, 'Optimierungspotential', 219302]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>[['NCS', 0.21, 756, 480, 'Optimierungspotential', 357353]]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>[['NCS', 0.28, 252, 480, 'Optimierungspotential', 363622]]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
